--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5768901248901248</v>
+        <v>-0.5945415785415785</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3702448422448423</v>
+        <v>-0.3597374757374758</v>
       </c>
     </row>
     <row r="4">
@@ -400,1937 +400,1937 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3084949164949165</v>
+        <v>-0.2509331869331869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02009309609309609</v>
+        <v>0.007145731145731147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009503565503565506</v>
+        <v>0.02280909480909481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.07216977616977618</v>
+        <v>0.006852798852798853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02006325206325206</v>
+        <v>0.002123534123534124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005286749286749287</v>
+        <v>-0.05492625092625093</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01130521130521131</v>
+        <v>0.03356990156990157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07096593496593497</v>
+        <v>-0.004302484302484303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.171047103047103</v>
+        <v>-0.01088347088347088</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03975873975873976</v>
+        <v>-0.0126996726996727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0432019032019032</v>
+        <v>-0.02230474630474631</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02493320493320493</v>
+        <v>-0.03293434493434494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03005052605052605</v>
+        <v>0.03916980316980317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06980136980136981</v>
+        <v>-0.0286963606963607</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004545184545184546</v>
+        <v>-0.005686253686253686</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
+          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05980031980031979</v>
+        <v>0.006466818466818467</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0343986703986704</v>
+        <v>0.006442326442326443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01434350634350634</v>
+        <v>-0.002394770394770395</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
+          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05064079464079465</v>
+        <v>-0.01941897141897142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01772519372519373</v>
+        <v>-9.266409266409267e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.04131712131712132</v>
+        <v>-0.004672084672084673</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06344271944271945</v>
+        <v>0.001100845100845101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02571226971226971</v>
+        <v>0.033000825000825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.0256928416928417</v>
+        <v>-0.02861267261267261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.006966678966678967</v>
+        <v>-0.001228009228009228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.01065548265548266</v>
+        <v>0.04315020715020716</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.07281662481662482</v>
+        <v>0.06105520905520905</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.009136041136041136</v>
+        <v>-0.05699993699993701</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02593225393225394</v>
+        <v>0.02834114834114834</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.07464129864129863</v>
+        <v>0.01012489012489013</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0008332088332088333</v>
+        <v>0.004297948297948298</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08763895563895566</v>
+        <v>-0.03874825474825475</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02425071625071625</v>
+        <v>-0.03415161415161416</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.03635439635439636</v>
+        <v>-0.02783354783354784</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02778350778350779</v>
+        <v>-0.04080844080844081</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0272943392943393</v>
+        <v>-0.0264957984957985</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02980586980586981</v>
+        <v>-0.03100554700554701</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.07767066567066568</v>
+        <v>-0.007845871845871846</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.009761397761397762</v>
+        <v>-0.005650697650697652</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.01872947472947473</v>
+        <v>0.02140888540888541</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.04692591492591493</v>
+        <v>-0.03915003915003915</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.08193302193302193</v>
+        <v>0.008723420723420723</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Mixer mix tank electricity rate (kW / m^3) [0.0887, 0.0985, 0.108]</t>
+          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.0417923577923578</v>
+        <v>-0.03036319836319836</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.153033369033369</v>
+        <v>0.004258312258312259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01185731985731986</v>
+        <v>-0.05726500526500528</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.05707906507906508</v>
+        <v>-0.02483616083616084</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.06983240183240184</v>
+        <v>0.03395715395715396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.01443767043767044</v>
+        <v>0.01234942834942835</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.065001593001593</v>
+        <v>0.02818416418416419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02308483108483109</v>
+        <v>-0.04056325656325657</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.01805243405243405</v>
+        <v>0.04794226794226795</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01736418536418537</v>
+        <v>0.04853137253137253</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.03350427350427351</v>
+        <v>-0.0173997173997174</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.04508982908982909</v>
+        <v>-0.06837738837738838</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01656484056484056</v>
+        <v>0.0265013065013065</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02742107142107142</v>
+        <v>-0.05230945630945632</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.006116694116694118</v>
+        <v>-0.03084927084927085</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.03316247716247717</v>
+        <v>0.0001435921435921436</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0160996000996001</v>
+        <v>0.02038781638781639</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.009465285465285465</v>
+        <v>-0.008205188205188205</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01294441294441295</v>
+        <v>0.0314939594939595</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01394877794877795</v>
+        <v>-0.03810680610680611</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.00932892932892933</v>
+        <v>-0.02332990732990733</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.00221011421011421</v>
+        <v>-0.04151532551532552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.01006825006825007</v>
+        <v>-0.02884168084168084</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.001626145626145626</v>
+        <v>-0.03562034362034363</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.01451365451365452</v>
+        <v>0.01293559293559294</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.01394559794559795</v>
+        <v>0.001146349146349146</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.01483359883359884</v>
+        <v>0.02185641385641386</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001985533985533986</v>
+        <v>-0.02072481272481273</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.001876681876681877</v>
+        <v>-0.04338277938277938</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.0004910524910524911</v>
+        <v>0.02789054789054789</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01761534561534562</v>
+        <v>0.04952023352023352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.007473199473199473</v>
+        <v>0.04730435930435931</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01010875010875011</v>
+        <v>8.274008274008275e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.03785840585840586</v>
+        <v>0.0183031983031983</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.006471702471702472</v>
+        <v>0.02417830817830818</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02874230874230875</v>
+        <v>-0.01302038502038502</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04928928128928129</v>
+        <v>-0.0481032241032241</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.001123717123717124</v>
+        <v>0.01631453231453232</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09817034617034617</v>
+        <v>0.05431955431955431</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01218864018864019</v>
+        <v>-0.01382977382977383</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.004519456519456519</v>
+        <v>0.01815821415821416</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.03551803151803152</v>
+        <v>0.04622033822033822</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.01693328893328893</v>
+        <v>0.02474562074562075</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0114988914988915</v>
+        <v>0.006763998763998764</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01068069468069468</v>
+        <v>0.05513907113907114</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.06045448845448846</v>
+        <v>0.03343150543150544</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.03973603573603574</v>
+        <v>-0.005737049737049737</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.008785280785280786</v>
+        <v>-0.03853619053619054</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01052098652098652</v>
+        <v>0.01613338013338014</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.01661340461340461</v>
+        <v>0.06551899751899753</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.04820424020424021</v>
+        <v>-0.04664951864951866</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.009653985653985654</v>
+        <v>0.03811908211908212</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01603415203415203</v>
+        <v>0.02565236565236566</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01212120012120012</v>
+        <v>-0.01033592233592234</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.04394106794106794</v>
+        <v>-0.0120969480969481</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.01000405000405001</v>
+        <v>-0.03084841884841885</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.03566870366870367</v>
+        <v>0.0215018255018255</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01596504396504397</v>
+        <v>-0.006884910884910885</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.02231077031077031</v>
+        <v>-0.00408977208977209</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.04031945231945232</v>
+        <v>0.01963741963741964</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.01003587403587404</v>
+        <v>-0.03510419910419911</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
+          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.003429051429051429</v>
+        <v>0.0510941070941071</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.05060609060609061</v>
+        <v>0.02747160347160347</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.05532747132747134</v>
+        <v>0.007082143082143081</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.0517001917001917</v>
+        <v>-0.001970857970857971</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.009141309141309142</v>
+        <v>0.06088185688185688</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.007691227691227692</v>
+        <v>-0.05573952773952774</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.01641198441198441</v>
+        <v>-0.0211020931020931</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
+          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01256097656097656</v>
+        <v>-0.02252822252822253</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0285054405054405</v>
+        <v>-0.06914621714621716</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.03406947406947407</v>
+        <v>0.02064869664869665</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
+          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.0210981210981211</v>
+        <v>0.03595552795552796</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.03902103902103903</v>
+        <v>0.03370728970728971</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.01434581034581034</v>
+        <v>0.007274791274791275</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.04646409446409446</v>
+        <v>-0.0514995874995875</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.009919473919473919</v>
+        <v>-0.04491872091872092</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.02306446706446707</v>
+        <v>-0.01301934101934102</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.02736109536109536</v>
+        <v>0.00561050961050961</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.05502203502203502</v>
+        <v>0.02117464517464518</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.01643694443694444</v>
+        <v>-0.007404667404667406</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.00866895266895267</v>
+        <v>-0.03182407982407982</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.04454421254421255</v>
+        <v>0.02187850587850588</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.06533136533136534</v>
+        <v>0.007091779091779092</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.04058542058542059</v>
+        <v>0.01038237438237438</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.09360610560610562</v>
+        <v>0.002903102903102904</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
+          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.03357144957144957</v>
+        <v>0.0363928803928804</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.02666503466503467</v>
+        <v>-0.04895208095208095</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.007581931581931583</v>
+        <v>0.03941533541533542</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
+          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.02230672630672631</v>
+        <v>-0.02252913452913453</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.03427479427479428</v>
+        <v>-0.03593222393222394</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.03581887181887182</v>
+        <v>0.06198360198360198</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.007172251172251173</v>
+        <v>0.02942543342543343</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.06706428706428706</v>
+        <v>0.03317744117744118</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0348013188013188</v>
+        <v>0.008344076344076344</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.01312154512154512</v>
+        <v>0.03388314988314989</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.06180864180864181</v>
+        <v>-0.02553268953268953</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.03053274653274654</v>
+        <v>-0.03504301104301104</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.0272984912984913</v>
+        <v>0.04015979215979216</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.03123078723078723</v>
+        <v>0.03988639588639589</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+          <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.01547282747282747</v>
+        <v>-0.04185560985560986</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.07576704376704377</v>
+        <v>0.01522777522777523</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Mixer mix tank electricity rate (kW / m^3) [0.0887, 0.0985, 0.108]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.06918374118374118</v>
+        <v>0.001247173247173247</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.01571119571119571</v>
+        <v>0.0125955005955006</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.01864177864177864</v>
+        <v>-0.01949121149121149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.02060471660471661</v>
+        <v>-0.01192621192621193</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.0001627081627081627</v>
+        <v>0.01110765510765511</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.00722974322974323</v>
+        <v>0.00263997863997864</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.02250829050829051</v>
+        <v>0.04804189204189205</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.01772207372207372</v>
+        <v>-0.03201302001302001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.01898881898881899</v>
+        <v>0.02276522276522277</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.000208956208956209</v>
+        <v>0.1061586101586102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0115020235020235</v>
+        <v>0.04367184767184768</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.01233370833370834</v>
+        <v>-0.005771045771045772</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.002049494049494049</v>
+        <v>0.01241781641781642</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.02676727476727477</v>
+        <v>0.02922810522810523</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.03954477954477955</v>
+        <v>-0.02022563622563623</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.01936846336846337</v>
+        <v>0.001726081726081726</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.04887793287793288</v>
+        <v>-0.03165912765912766</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.04058802458802459</v>
+        <v>0.01262805662805663</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0362938802938803</v>
+        <v>0.0344927864927865</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.03587945987945988</v>
+        <v>0.0640855720855721</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.0004388044388044388</v>
+        <v>-0.02886191286191287</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.02901418101418101</v>
+        <v>0.02617214617214617</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.0001056001056001056</v>
+        <v>0.01894527094527095</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.06202501402501404</v>
+        <v>-0.01517215517215517</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.03576621576621577</v>
+        <v>0.03317610917610918</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.002515778515778516</v>
+        <v>0.01923760323760324</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.02473612873612874</v>
+        <v>0.003741939741939742</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.03000821400821401</v>
+        <v>-0.02576654576654577</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.05202762402762403</v>
+        <v>-0.009885801885801886</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-9.297609297609298e-05</v>
+        <v>0.01023800223800224</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.02980392580392581</v>
+        <v>0.01671295671295671</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.01223109623109623</v>
+        <v>0.02685851085851086</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.03579080379080379</v>
+        <v>0.02813460413460414</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.03016995016995017</v>
+        <v>0.0517967797967798</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.02084201684201684</v>
+        <v>0.03216540816540817</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.01155877155877156</v>
+        <v>-0.03654288054288054</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.04778182778182778</v>
+        <v>-0.04471342471342472</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.04129043329043329</v>
+        <v>0.05730239730239731</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.01066814266814267</v>
+        <v>-0.04508391308391309</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.01751039351039351</v>
+        <v>0.03222350022350023</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.01270657270657271</v>
+        <v>0.006622530622530623</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.02945652545652546</v>
+        <v>0.01716791316791317</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.008338520338520339</v>
+        <v>0.01085050685050685</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.02683599883599884</v>
+        <v>-0.01761659361659362</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.002713370713370714</v>
+        <v>0.02235803835803836</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.006471702471702472</v>
+        <v>-0.005195777195777196</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
+          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.02167367767367767</v>
+        <v>0.03503845103845104</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.001631953631953632</v>
+        <v>-0.03346096546096546</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.01921413121413122</v>
+        <v>-0.01560671160671161</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.008865896865896866</v>
+        <v>-0.02866961266961267</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.02063748863748864</v>
+        <v>-0.02081700881700882</v>
       </c>
     </row>
     <row r="198">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.16196186996187</v>
+        <v>0.1477809397809398</v>
       </c>
     </row>
     <row r="199">
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.03028039828039828</v>
+        <v>-0.04983657783657784</v>
       </c>
     </row>
     <row r="200">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.001762837762837763</v>
+        <v>-0.02507443307443308</v>
       </c>
     </row>
     <row r="201">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.03503805503805504</v>
+        <v>-0.04238959838959839</v>
       </c>
     </row>
     <row r="202">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.02356186756186756</v>
+        <v>-0.02007861207861208</v>
       </c>
     </row>
     <row r="203">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.003349443349443349</v>
+        <v>0.01221097221097221</v>
       </c>
     </row>
     <row r="204">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.01405801405801406</v>
+        <v>0.0598032598032598</v>
       </c>
     </row>
     <row r="205">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.005973665973665975</v>
+        <v>0.002133734133734134</v>
       </c>
     </row>
     <row r="206">
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.01080713880713881</v>
+        <v>0.008701556701556703</v>
       </c>
     </row>
     <row r="207">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.03294705294705295</v>
+        <v>0.06459983259983261</v>
       </c>
     </row>
     <row r="208">
@@ -2440,127 +2440,127 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.01386548586548587</v>
+        <v>-0.02887865287865288</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.4744074664074664</v>
+        <v>-0.01663592863592864</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.02078537678537679</v>
+        <v>0.0546979146979147</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-0.02199190599190599</v>
+        <v>0.2248538008538009</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.02083082083082083</v>
+        <v>-0.001813273813273813</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
+          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.24602541002541</v>
+        <v>0.04973961773961775</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.04823629223629224</v>
+        <v>0.01550682350682351</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.03333764133764134</v>
+        <v>0.04657619857619858</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
+          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.0415988935988936</v>
+        <v>0.4946627786627786</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.04418171618171619</v>
+        <v>-0.02541332541332542</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.04527326127326128</v>
+        <v>-0.01170517170517171</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
+          <t>Stream-ethanol price (USD/kg) [0.637, 0.708, 0.779]</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.02570218970218971</v>
+        <v>-0.01135663135663136</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Stream-ethanol price (USD/kg) [0.649, 0.722, 0.794]</t>
+          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.0139043419043419</v>
+        <v>-0.005074517074517075</v>
       </c>
     </row>
     <row r="221">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.07412577812577814</v>
+        <v>-0.106948354948355</v>
       </c>
     </row>
     <row r="222">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.03530433530433531</v>
+        <v>0.059998451998452</v>
       </c>
     </row>
     <row r="223">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0312032712032712</v>
+        <v>0.03106249906249907</v>
       </c>
     </row>
     <row r="224">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.004098244098244099</v>
+        <v>0.08807765207765207</v>
       </c>
     </row>
     <row r="225">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.02237915837915838</v>
+        <v>-0.03151870351870352</v>
       </c>
     </row>
     <row r="226">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.1911842511842512</v>
+        <v>0.2009349449349449</v>
       </c>
     </row>
     <row r="227">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.01958283158283158</v>
+        <v>0.00951948951948952</v>
       </c>
     </row>
     <row r="228">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.01389488589488589</v>
+        <v>0.003544395544395544</v>
       </c>
     </row>
     <row r="229">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.02200412200412201</v>
+        <v>0.03977892377892378</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5945415785415785</v>
+        <v>-0.5748865668865669</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3597374757374758</v>
+        <v>-0.3563314283314284</v>
       </c>
     </row>
     <row r="4">
@@ -400,2147 +400,2147 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2509331869331869</v>
+        <v>-0.2536553416553416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007145731145731147</v>
+        <v>-0.002405930405930406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02280909480909481</v>
+        <v>-0.07093205893205894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
+          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006852798852798853</v>
+        <v>0.03669392469392469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002123534123534124</v>
+        <v>-0.00373025173025173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.05492625092625093</v>
+        <v>0.01183837183837184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03356990156990157</v>
+        <v>0.0008080808080808081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.004302484302484303</v>
+        <v>-0.0202976602976603</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01088347088347088</v>
+        <v>0.06955409755409755</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0126996726996727</v>
+        <v>-0.05130866730866731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02230474630474631</v>
+        <v>-0.04917207717207717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03293434493434494</v>
+        <v>-0.06102204102204102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03916980316980317</v>
+        <v>-0.05075166275166276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0286963606963607</v>
+        <v>0.000918948918948919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005686253686253686</v>
+        <v>0.01812821412821413</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006466818466818467</v>
+        <v>-0.006872418872418872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006442326442326443</v>
+        <v>-0.007201603201603203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002394770394770395</v>
+        <v>0.02328640728640729</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01941897141897142</v>
+        <v>0.01521336321336321</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-9.266409266409267e-05</v>
+        <v>-0.0404994404994405</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004672084672084673</v>
+        <v>0.02648928248928249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001100845100845101</v>
+        <v>0.07448373848373849</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.033000825000825</v>
+        <v>-0.06300590700590701</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.02861267261267261</v>
+        <v>-0.004693216693216693</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.001228009228009228</v>
+        <v>0.03484334284334284</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04315020715020716</v>
+        <v>0.01746424146424147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.06105520905520905</v>
+        <v>0.005040413040413041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.05699993699993701</v>
+        <v>0.09782552582552582</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02834114834114834</v>
+        <v>-0.02128188928188928</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01012489012489013</v>
+        <v>0.05274022074022074</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.004297948297948298</v>
+        <v>0.01535670335670336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.03874825474825475</v>
+        <v>-0.03802367002367003</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.03415161415161416</v>
+        <v>-0.04775852375852376</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02783354783354784</v>
+        <v>-0.009664917664917665</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.04080844080844081</v>
+        <v>0.009160161160161162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.0264957984957985</v>
+        <v>0.04247719847719848</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.03100554700554701</v>
+        <v>0.04901918501918501</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.007845871845871846</v>
+        <v>-0.009000057000057</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.005650697650697652</v>
+        <v>-0.00332955932955933</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02140888540888541</v>
+        <v>0.02613063813063813</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.03915003915003915</v>
+        <v>0.03543459543459544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.008723420723420723</v>
+        <v>0.007566859566859567</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.03036319836319836</v>
+        <v>0.0316958956958957</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.004258312258312259</v>
+        <v>0.0009605049605049607</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.05726500526500528</v>
+        <v>0.01544294744294745</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.02483616083616084</v>
+        <v>-0.005909129909129908</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
+          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03395715395715396</v>
+        <v>0.009182073182073184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01234942834942835</v>
+        <v>0.09842661842661843</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02818416418416419</v>
+        <v>0.04742701142701143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.04056325656325657</v>
+        <v>0.01541111141111141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04794226794226795</v>
+        <v>0.02794601194601195</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.04853137253137253</v>
+        <v>0.0627939387939388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.0173997173997174</v>
+        <v>0.01958765558765559</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.06837738837738838</v>
+        <v>0.03688246888246889</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0265013065013065</v>
+        <v>-0.02686206286206286</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.05230945630945632</v>
+        <v>-0.03475451875451876</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.03084927084927085</v>
+        <v>0.01769233769233769</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0001435921435921436</v>
+        <v>0.004692616692616693</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02038781638781639</v>
+        <v>0.03239890439890439</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.008205188205188205</v>
+        <v>0.01367886167886168</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0314939594939595</v>
+        <v>0.02054616854616855</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.03810680610680611</v>
+        <v>0.03814591414591414</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.02332990732990733</v>
+        <v>0.008011568011568012</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.04151532551532552</v>
+        <v>0.02909167709167709</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02884168084168084</v>
+        <v>-0.005534249534249534</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.03562034362034363</v>
+        <v>-0.01136852336852337</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01293559293559294</v>
+        <v>0.02814857214857215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.001146349146349146</v>
+        <v>-0.027001107001107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02185641385641386</v>
+        <v>0.05418199818199819</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02072481272481273</v>
+        <v>-0.02119204519204519</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.04338277938277938</v>
+        <v>0.03574183174183174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02789054789054789</v>
+        <v>-0.002675906675906676</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.04952023352023352</v>
+        <v>-0.008777264777264778</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.04730435930435931</v>
+        <v>-0.0263007023007023</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8.274008274008275e-05</v>
+        <v>0.006992682992682992</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0183031983031983</v>
+        <v>0.03186996786996787</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02417830817830818</v>
+        <v>-0.0351001431001431</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.01302038502038502</v>
+        <v>-0.01991206391206391</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.0481032241032241</v>
+        <v>0.03318772518772519</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01631453231453232</v>
+        <v>0.046005874005874</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05431955431955431</v>
+        <v>-0.01933210333210333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.01382977382977383</v>
+        <v>-0.005276621276621277</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01815821415821416</v>
+        <v>-0.02353172353172353</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.04622033822033822</v>
+        <v>-0.01510833910833911</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02474562074562075</v>
+        <v>-0.001618345618345618</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.006763998763998764</v>
+        <v>-0.002088290088290088</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05513907113907114</v>
+        <v>-0.03905353505353506</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.03343150543150544</v>
+        <v>-0.0451016371016371</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.005737049737049737</v>
+        <v>0.04533022533022533</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.03853619053619054</v>
+        <v>-0.05504055104055104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01613338013338014</v>
+        <v>-9.936009936009938e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.06551899751899753</v>
+        <v>-0.00974969774969775</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.04664951864951866</v>
+        <v>-0.02745606345606346</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.03811908211908212</v>
+        <v>-0.04254160254160255</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02565236565236566</v>
+        <v>-0.07113599913599915</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.01033592233592234</v>
+        <v>-0.05307473307473308</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.0120969480969481</v>
+        <v>-0.00357935157935158</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.03084841884841885</v>
+        <v>-0.01702262902262902</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0215018255018255</v>
+        <v>-0.0001956361956361956</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.006884910884910885</v>
+        <v>0.001431721431721432</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.00408977208977209</v>
+        <v>0.008193464193464194</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01963741963741964</v>
+        <v>0.01348321348321348</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
+          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.03510419910419911</v>
+        <v>-0.007805287805287806</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0510941070941071</v>
+        <v>0.03920666720666721</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.02747160347160347</v>
+        <v>0.0203972363972364</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.007082143082143081</v>
+        <v>0.03621579621579622</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.001970857970857971</v>
+        <v>-0.02764009564009564</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.06088185688185688</v>
+        <v>0.02924137724137724</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+          <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.05573952773952774</v>
+        <v>0.0817950697950698</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+          <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.0211020931020931</v>
+        <v>-0.04092480492480493</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Mixer mix tank electricity rate (kW / m^3) [0.0887, 0.0985, 0.108]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.02252822252822253</v>
+        <v>-0.04353881553881554</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.06914621714621716</v>
+        <v>0.1414230574230574</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.02064869664869665</v>
+        <v>-0.02334755934755935</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.03595552795552796</v>
+        <v>0.01548756348756349</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.03370728970728971</v>
+        <v>0.05166057966057967</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.007274791274791275</v>
+        <v>-0.03491680691680692</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.0514995874995875</v>
+        <v>-0.01394892194892195</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.04491872091872092</v>
+        <v>-0.05070425070425071</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.01301934101934102</v>
+        <v>0.02802968802968804</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.00561050961050961</v>
+        <v>-0.04322035922035922</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.02117464517464518</v>
+        <v>-0.03342051342051342</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.007404667404667406</v>
+        <v>-0.01974959574959575</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.03182407982407982</v>
+        <v>-0.007252711252711253</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.02187850587850588</v>
+        <v>-0.009393465393465394</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.007091779091779092</v>
+        <v>-0.02372869172869173</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.01038237438237438</v>
+        <v>0.02473518073518073</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.002903102903102904</v>
+        <v>-0.02828958428958429</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0363928803928804</v>
+        <v>-0.03093222693222693</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.04895208095208095</v>
+        <v>0.05535133935133936</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.03941533541533542</v>
+        <v>-0.009243057243057243</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.02252913452913453</v>
+        <v>0.04118334518334518</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.03593222393222394</v>
+        <v>-0.04991150591150591</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
+          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.06198360198360198</v>
+        <v>-0.0137025617025617</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.02942543342543343</v>
+        <v>-0.05655035655035656</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.03317744117744118</v>
+        <v>0.006576498576498576</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.008344076344076344</v>
+        <v>-0.0416090336090336</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.03388314988314989</v>
+        <v>0.02004518004518004</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.02553268953268953</v>
+        <v>0.04759036759036759</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.03504301104301104</v>
+        <v>-0.01460629460629461</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.04015979215979216</v>
+        <v>0.01109003909003909</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.03988639588639589</v>
+        <v>0.007853431853431854</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Mixer mix tank base cost (USD) [1.09e+04, 1.21e+04, 1.33e+04]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.04185560985560986</v>
+        <v>0.02724830724830725</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Mixer mix tank exponent [0.425, 0.525, 0.625]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.01522777522777523</v>
+        <v>-0.03204281604281604</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Mixer mix tank electricity rate (kW / m^3) [0.0887, 0.0985, 0.108]</t>
+          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.001247173247173247</v>
+        <v>0.0005775485775485776</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0125955005955006</v>
+        <v>-0.009315333315333315</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.01949121149121149</v>
+        <v>0.04684868284868285</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.01192621192621193</v>
+        <v>0.03384092184092184</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.01110765510765511</v>
+        <v>0.002895290895290896</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.00263997863997864</v>
+        <v>-0.02841125241125241</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.04804189204189205</v>
+        <v>-0.007967311967311968</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.03201302001302001</v>
+        <v>0.01612405612405612</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.02276522276522277</v>
+        <v>-0.02239420639420639</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1061586101586102</v>
+        <v>-0.03612506412506413</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.04367184767184768</v>
+        <v>-0.007197235197235198</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.005771045771045772</v>
+        <v>-0.02706366306366307</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.01241781641781642</v>
+        <v>0.05121055521055522</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.02922810522810523</v>
+        <v>0.02821583221583222</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.02022563622563623</v>
+        <v>0.00932786132786133</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.001726081726081726</v>
+        <v>-0.02117854517854518</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
+          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.03165912765912766</v>
+        <v>-0.02387429987429988</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.01262805662805663</v>
+        <v>0.005406629406629407</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0344927864927865</v>
+        <v>0.02203821403821404</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0640855720855721</v>
+        <v>-0.007162615162615164</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.02886191286191287</v>
+        <v>0.07727626127626129</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.02617214617214617</v>
+        <v>0.008988332988332988</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.01894527094527095</v>
+        <v>-0.008043632043632043</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.01517215517215517</v>
+        <v>0.002237726237726238</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.03317610917610918</v>
+        <v>0.04048404448404448</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.01923760323760324</v>
+        <v>0.01089316689316689</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.003741939741939742</v>
+        <v>-0.01893331893331894</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.02576654576654577</v>
+        <v>-0.02814880014880015</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.009885801885801886</v>
+        <v>0.07422749022749023</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.01023800223800224</v>
+        <v>-0.03422917022917023</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.01671295671295671</v>
+        <v>0.04027165627165627</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.02685851085851086</v>
+        <v>0.01822681822681823</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
+          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.02813460413460414</v>
+        <v>-0.05156196356196357</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0517967797967798</v>
+        <v>0.02205230205230205</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.03216540816540817</v>
+        <v>-0.0252021492021492</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.03654288054288054</v>
+        <v>-0.03362891762891763</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.04471342471342472</v>
+        <v>-0.02416684816684817</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
+          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.05730239730239731</v>
+        <v>-0.02738299538299539</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.04508391308391309</v>
+        <v>-0.02238353838353838</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.03222350022350023</v>
+        <v>0.01112427512427512</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.006622530622530623</v>
+        <v>0.01228648828648829</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.01716791316791317</v>
+        <v>0.02245979845979846</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
+          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.01085050685050685</v>
+        <v>0.02535230535230535</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.01761659361659362</v>
+        <v>-0.04700624300624301</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.02235803835803836</v>
+        <v>0.01259424059424059</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.005195777195777196</v>
+        <v>0.03290639690639691</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.03503845103845104</v>
+        <v>0.01812735012735013</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
+          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.03346096546096546</v>
+        <v>0.06795133995133995</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.01560671160671161</v>
+        <v>-0.01335210135210135</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.02866961266961267</v>
+        <v>0.001414261414261414</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
+          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.02081700881700882</v>
+        <v>-0.04762400362400362</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.1477809397809398</v>
+        <v>0.04548140148140149</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.04983657783657784</v>
+        <v>0.03787168987168987</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.02507443307443308</v>
+        <v>0.01290770490770491</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.04238959838959839</v>
+        <v>0.04758544758544759</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.02007861207861208</v>
+        <v>0.1041736641736642</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.01221097221097221</v>
+        <v>0.04430673230673231</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0598032598032598</v>
+        <v>-0.02396353196353197</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.002133734133734134</v>
+        <v>-0.005376677376677378</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.008701556701556703</v>
+        <v>-0.04264047064047065</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.06459983259983261</v>
+        <v>0.02007102807102807</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.02887865287865288</v>
+        <v>-0.0184008184008184</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-0.01663592863592864</v>
+        <v>0.03347476547476547</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
+          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.0546979146979147</v>
+        <v>-0.02962434562434562</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
+          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.2248538008538009</v>
+        <v>0.01364455364455365</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.001813273813273813</v>
+        <v>0.004708288708288709</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.04973961773961775</v>
+        <v>0.2491048291048291</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.01550682350682351</v>
+        <v>0.0113982833982834</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.04657619857619858</v>
+        <v>0.07965648765648767</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.4946627786627786</v>
+        <v>-0.004512208512208513</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
+          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.02541332541332542</v>
+        <v>0.01891553491553492</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.01170517170517171</v>
+        <v>0.5074235194235195</v>
       </c>
     </row>
     <row r="219">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.01135663135663136</v>
+        <v>0.03516652716652716</v>
       </c>
     </row>
     <row r="220">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.005074517074517075</v>
+        <v>-0.05992634392634393</v>
       </c>
     </row>
     <row r="221">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.106948354948355</v>
+        <v>-0.124000552000552</v>
       </c>
     </row>
     <row r="222">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.059998451998452</v>
+        <v>-0.0192963672963673</v>
       </c>
     </row>
     <row r="223">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.03106249906249907</v>
+        <v>0.008544524544524547</v>
       </c>
     </row>
     <row r="224">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.08807765207765207</v>
+        <v>-0.04716125916125916</v>
       </c>
     </row>
     <row r="225">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.03151870351870352</v>
+        <v>-0.0103946503946504</v>
       </c>
     </row>
     <row r="226">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.2009349449349449</v>
+        <v>0.2072339792339792</v>
       </c>
     </row>
     <row r="227">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.00951948951948952</v>
+        <v>0.006300582300582301</v>
       </c>
     </row>
     <row r="228">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.003544395544395544</v>
+        <v>0.02041536841536842</v>
       </c>
     </row>
     <row r="229">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.03977892377892378</v>
+        <v>0.00832942432942433</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4462449142449142</v>
+        <v>-0.5892757812757814</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4073414513414513</v>
+        <v>-0.372912912912913</v>
       </c>
     </row>
     <row r="4">
@@ -400,2137 +400,2137 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4844179484179484</v>
+        <v>-0.2621911061911062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03128832728832729</v>
+        <v>0.006592170592170593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003251043251043251</v>
+        <v>-0.02349501549501549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
+          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03627530427530428</v>
+        <v>0.008442356442356443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01172737172737173</v>
+        <v>-0.004716748716748717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01231374031374032</v>
+        <v>0.02151910551910552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02025851625851626</v>
+        <v>-0.06042936042936044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04726198726198727</v>
+        <v>0.05095002295002295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02604602604602604</v>
+        <v>0.03102946302946303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04821717621717622</v>
+        <v>-0.03849245049245049</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02548650148650149</v>
+        <v>-0.00255950655950656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03517197517197518</v>
+        <v>-0.008812916812916812</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.001497697497697498</v>
+        <v>-0.03817430617430618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0232994632994633</v>
+        <v>-0.02137755337755338</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03354335754335754</v>
+        <v>-0.006511518511518512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02455304455304455</v>
+        <v>-0.03204876804876805</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04523386523386524</v>
+        <v>0.007456687456687456</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001945801945801946</v>
+        <v>-0.007875739875739876</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04018310818310818</v>
+        <v>0.007158799158799159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02045975645975646</v>
+        <v>0.01351882951882952</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.02421309621309622</v>
+        <v>-0.03712780912780913</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03447993447993448</v>
+        <v>0.0191951591951592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.006257538257538258</v>
+        <v>0.0211923091923092</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.05322091722091722</v>
+        <v>0.03598335598335599</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.05718597318597319</v>
+        <v>0.02545550545550546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
+          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.03115900315900316</v>
+        <v>0.0283985323985324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008251172251172251</v>
+        <v>0.01180829980829981</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.03328290928290929</v>
+        <v>-0.03946217146217147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
+          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0564012924012924</v>
+        <v>-0.02512825312825313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.11803765003765</v>
+        <v>0.006940614940614941</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0567111927111927</v>
+        <v>-0.02561188961188962</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.06438017238017239</v>
+        <v>0.01408544608544609</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.07651199251199252</v>
+        <v>-0.02782457182457183</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01823554223554224</v>
+        <v>0.11604866004866</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.01555459555459556</v>
+        <v>-0.02491520491520492</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.06023126423126424</v>
+        <v>0.0003125763125763126</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.04554998154998156</v>
+        <v>-0.05265524865524866</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.04276986676986677</v>
+        <v>0.06284567084567085</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02080516480516481</v>
+        <v>-0.001455169455169455</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
+          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.002957510957510958</v>
+        <v>0.03528058728058728</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.1175636495636496</v>
+        <v>-0.0289038289038289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.01150957150957151</v>
+        <v>0.07600633600633601</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
+          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.01573964773964774</v>
+        <v>-0.02616228216228217</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1041627921627922</v>
+        <v>0.01936473136473137</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.03819357819357819</v>
+        <v>0.04328869928869929</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.01476318276318276</v>
+        <v>0.02811617211617212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.001102045102045102</v>
+        <v>-0.04741810741810742</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.003227451227451227</v>
+        <v>0.01207074007074007</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.006115158115158116</v>
+        <v>0.03568790368790369</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.006445002445002445</v>
+        <v>-0.0310911430911431</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.03271736071736072</v>
+        <v>0.01243449643449644</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.02306986706986707</v>
+        <v>-0.002045138045138045</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.003070647070647071</v>
+        <v>0.06217908217908218</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.02873248073248074</v>
+        <v>-0.007375027375027376</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.04668076668076668</v>
+        <v>0.05025012225012225</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.001039393039393039</v>
+        <v>0.04363960363960365</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.01625802425802426</v>
+        <v>-0.05317009717009717</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.003973143973143973</v>
+        <v>-0.03774796974796975</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02582904182904183</v>
+        <v>-0.02640609840609841</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01962001962001962</v>
+        <v>0.00624972624972625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.02472050472050472</v>
+        <v>2.138402138402139e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0262021222021222</v>
+        <v>-0.05995299595299596</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.04702493902493902</v>
+        <v>0.02248166248166248</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001793101793101793</v>
+        <v>0.0118985038985039</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.01093399093399093</v>
+        <v>-0.02884332484332484</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02145065745065745</v>
+        <v>0.02278621078621079</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.006581946581946583</v>
+        <v>0.03961371961371962</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02506549306549307</v>
+        <v>-0.02353517953517954</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.04971796971796973</v>
+        <v>-0.0653004293004293</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02073216873216873</v>
+        <v>-0.01381141381141381</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.03608355608355608</v>
+        <v>0.02848292848292848</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02007899607899608</v>
+        <v>-0.0128967968967969</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.009356133356133356</v>
+        <v>0.003111111111111111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.03048063048063048</v>
+        <v>-0.02495122895122895</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.04766498366498367</v>
+        <v>0.0285009165009165</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1106288186288186</v>
+        <v>-0.06493361293361294</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.004195132195132196</v>
+        <v>0.0235059715059715</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.03699130899130899</v>
+        <v>0.02846795246795247</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.03376018576018576</v>
+        <v>-0.008428328428328429</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.003385263385263385</v>
+        <v>0.01947561147561148</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.021995877995878</v>
+        <v>0.03637092037092038</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02299097899097899</v>
+        <v>-0.02189337389337389</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0008517608517608518</v>
+        <v>0.003550719550719551</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.0341023421023421</v>
+        <v>-0.02892599292599293</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01063408663408664</v>
+        <v>0.06207019407019407</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01466621066621067</v>
+        <v>0.01215667215667216</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01894119094119094</v>
+        <v>-0.03055407055407056</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.04417502017502018</v>
+        <v>-0.04878795678795679</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04835988035988037</v>
+        <v>0.01248798048798049</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06773879573879575</v>
+        <v>0.04986292986292986</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.03943518343518344</v>
+        <v>0.01352905352905353</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.01716806916806917</v>
+        <v>0.08723525123525123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.05918833118833119</v>
+        <v>-0.08316598716598718</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05784059784059784</v>
+        <v>0.02071254871254871</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.03594495594495595</v>
+        <v>-0.01274418074418075</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01146435546435547</v>
+        <v>-0.02635339435339436</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0767899367899368</v>
+        <v>-0.01223456423456423</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01793159393159393</v>
+        <v>-0.01628744828744829</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.05213142413142414</v>
+        <v>0.0243926043926044</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.004167604167604168</v>
+        <v>0.02996942996942997</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0436941916941917</v>
+        <v>-0.05067699867699868</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.04102794502794503</v>
+        <v>-0.0402893922893923</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.00885958485958486</v>
+        <v>0.06674525474525475</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.03371805371805372</v>
+        <v>-0.03325334125334126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.0500918660918661</v>
+        <v>0.03874163074163074</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.06730672330672331</v>
+        <v>-0.0259043779043779</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.00341891141891142</v>
+        <v>0.05304794904794904</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.004221592221592222</v>
+        <v>-0.04168601368601369</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.006547158547158547</v>
+        <v>0.02756105156105157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.02244748644748645</v>
+        <v>-0.04156081756081757</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.007595059595059596</v>
+        <v>-0.01034842634842635</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.01642406842406843</v>
+        <v>0.03172461172461173</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.04301068301068302</v>
+        <v>0.01635022035022035</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.02726463926463926</v>
+        <v>-0.01330592530592531</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.03967195567195567</v>
+        <v>0.01102576702576703</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.01591623991623992</v>
+        <v>-0.01388497388497388</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.009122865122865123</v>
+        <v>0.01391623391623392</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.004635964635964636</v>
+        <v>0.02817031617031618</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.05294578094578095</v>
+        <v>0.005355557355557356</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.003367767367767368</v>
+        <v>0.01337611337611338</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.009181701181701182</v>
+        <v>0.04414367614367615</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.01434639834639835</v>
+        <v>-0.03352612552612552</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.02309174309174309</v>
+        <v>-0.01280583680583681</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.0263027663027663</v>
+        <v>-0.07545009945009945</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.02007393207393207</v>
+        <v>-0.0440994800994801</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.07247299247299246</v>
+        <v>0.02975948975948976</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.03684831684831685</v>
+        <v>-0.01764217764217765</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.02559298959298959</v>
+        <v>-0.0306981306981307</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.03734850134850135</v>
+        <v>0.006013338013338014</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.02402295602295602</v>
+        <v>0.03663405663405664</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.01412121812121812</v>
+        <v>0.02535506535506536</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.03142795942795943</v>
+        <v>-0.02799042399042399</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.00491971691971692</v>
+        <v>0.003672015672015673</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.03396814596814597</v>
+        <v>-0.04043311643311644</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.01318227718227718</v>
+        <v>-0.04007626007626008</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0366021846021846</v>
+        <v>-0.03072615072615073</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.004390696390696391</v>
+        <v>0.05189041589041589</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.01718940518940519</v>
+        <v>-0.003945327945327945</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.02872231672231672</v>
+        <v>0.03545499545499545</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.01546867546867547</v>
+        <v>0.03875658275658276</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.07775388575388575</v>
+        <v>-0.03699127299127299</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.03703956103956105</v>
+        <v>-0.026005178005178</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.007830355830355832</v>
+        <v>-0.02596824196824197</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.02218732618732619</v>
+        <v>0.04242112242112242</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.04490996090996092</v>
+        <v>0.003372675372675373</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.01568057168057168</v>
+        <v>-0.01538936738936739</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.02403505203505204</v>
+        <v>-0.02319315519315519</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.006820410820410822</v>
+        <v>-0.01932911532911533</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.01591779991779992</v>
+        <v>0.07581351981351983</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.05754188154188154</v>
+        <v>-0.02418717618717619</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.01961591561591562</v>
+        <v>0.02346058746058746</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.06668735468735469</v>
+        <v>0.008056340056340056</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.0119032079032079</v>
+        <v>0.02105118905118905</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.009367713367713368</v>
+        <v>0.0332031092031092</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.01238696438696439</v>
+        <v>0.03527656727656728</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.01046332646332646</v>
+        <v>-0.04174123774123774</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.003496971496971498</v>
+        <v>-0.02039045639045639</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.02245516645516646</v>
+        <v>-0.02171493371493372</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.04914679314679316</v>
+        <v>-0.08091291291291292</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.007492543492543492</v>
+        <v>-0.01822048222048222</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.01201590001590002</v>
+        <v>0.01562894762894763</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.06743871143871144</v>
+        <v>0.0407980847980848</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.003673335673335673</v>
+        <v>0.02118378918378918</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.003176463176463177</v>
+        <v>0.01210924810924811</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.02081735681735682</v>
+        <v>0.0003953763953763954</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.09154267954267956</v>
+        <v>0.006812718812718813</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.02876815676815677</v>
+        <v>-0.01318071718071718</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.009286905286905286</v>
+        <v>0.01804332604332604</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.04210992610992612</v>
+        <v>0.02316002316002316</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
+          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.04223883023883024</v>
+        <v>0.002861150861150861</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0168972648972649</v>
+        <v>-0.01316079716079716</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.00884102084102084</v>
+        <v>0.01320400920400921</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.02487550887550887</v>
+        <v>0.002570882570882571</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.05106492306492307</v>
+        <v>-0.01938156738156738</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
+          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.03176412776412776</v>
+        <v>0.03187606387606388</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.007885675885675887</v>
+        <v>0.02671302271302272</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.003266667266667267</v>
+        <v>0.003514419514419514</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.01625212025212025</v>
+        <v>-0.02024991224991225</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.01565237165237165</v>
+        <v>0.02838622038622039</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
+          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.01166259566259566</v>
+        <v>0.02082821682821683</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.05343204543204544</v>
+        <v>0.02141663741663742</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.04425966825966826</v>
+        <v>-0.01038518238518239</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.04566836166836167</v>
+        <v>0.01055332655332655</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.007092163092163092</v>
+        <v>-0.0001390801390801391</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.02156032556032556</v>
+        <v>0.03442990642990643</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.008275052275052276</v>
+        <v>-0.02772684372684373</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.02328657528657529</v>
+        <v>0.04003057603057603</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-0.001023733023733024</v>
+        <v>-0.008382068382068383</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
+          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.05131257931257931</v>
+        <v>0.01920520320520321</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.01766588966588967</v>
+        <v>0.01911301911301911</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.01736498936498937</v>
+        <v>-0.007871803871803874</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.008186036186036187</v>
+        <v>0.09826335826335826</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.02955712155712156</v>
+        <v>-0.00243980643980644</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.03682108882108883</v>
+        <v>0.02734008334008334</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.006399918399918401</v>
+        <v>0.03258108858108858</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.03997073197073197</v>
+        <v>0.08430362430362431</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
+          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.07462764262764264</v>
+        <v>-0.0530961290961291</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.04016815616815617</v>
+        <v>-0.01842061842061842</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0276991596991597</v>
+        <v>-0.06456973656973657</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.004183900183900184</v>
+        <v>-0.02678300678300679</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.04552301752301752</v>
+        <v>0.07255230055230055</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.03879059079059079</v>
+        <v>0.03152812352812353</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.02435942435942436</v>
+        <v>0.440934932934933</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.02235831435831436</v>
+        <v>0.1944722664722665</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.002481206481206481</v>
+        <v>0.03803880203880204</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.02136867336867337</v>
+        <v>0.01688474888474889</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.03084595884595884</v>
+        <v>-0.05466820266820267</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
+          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.2397042357042357</v>
+        <v>0.01414857814857815</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.4748015588015589</v>
+        <v>0.09073851073851075</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
+          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.01627212427212427</v>
+        <v>0.06505465705465706</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.03622726822726823</v>
+        <v>0.02023802023802024</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
+          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.008770952770952771</v>
+        <v>-0.00600973800973801</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Stream-ethanol price (USD/kg) [0.707, 0.786, 0.865]</t>
+          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.03967987567987569</v>
+        <v>-0.05571939171939173</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
+          <t>Stream-ethanol price (USD/kg) [0.647, 0.719, 0.791]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.02677494277494278</v>
+        <v>0.003851559851559852</v>
       </c>
     </row>
     <row r="218">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.05006660606660607</v>
+        <v>-0.1316675516675517</v>
       </c>
     </row>
     <row r="219">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.004776328776328777</v>
+        <v>0.04182278982278983</v>
       </c>
     </row>
     <row r="220">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.00593962193962194</v>
+        <v>0.03842891042891043</v>
       </c>
     </row>
     <row r="221">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.01767454167454167</v>
+        <v>-0.005687693687693688</v>
       </c>
     </row>
     <row r="222">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.04036423636423637</v>
+        <v>0.03242542442542443</v>
       </c>
     </row>
     <row r="223">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.2035601995601996</v>
+        <v>0.2456030336030336</v>
       </c>
     </row>
     <row r="224">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.04605185805185806</v>
+        <v>0.05604207204207204</v>
       </c>
     </row>
     <row r="225">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.03004032604032604</v>
+        <v>0.02654957054957055</v>
       </c>
     </row>
     <row r="226">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.02283782283782284</v>
+        <v>0.06488099288099287</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5892757812757814</v>
+        <v>-0.6101170117011701</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.372912912912913</v>
+        <v>-0.09053705370537053</v>
       </c>
     </row>
     <row r="4">
@@ -400,2117 +400,2117 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2621911061911062</v>
+        <v>-0.3228202820282028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006592170592170593</v>
+        <v>-0.192043204320432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02349501549501549</v>
+        <v>-0.01344134413441344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008442356442356443</v>
+        <v>0.08578457845784578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.004716748716748717</v>
+        <v>-0.1253285328532853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02151910551910552</v>
+        <v>-0.02209420942094209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.06042936042936044</v>
+        <v>0.02165016501650165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
+          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05095002295002295</v>
+        <v>-0.02699069906990699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03102946302946303</v>
+        <v>0.06354635463546354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03849245049245049</v>
+        <v>-0.08229222922292229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00255950655950656</v>
+        <v>0.1384698469846985</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008812916812916812</v>
+        <v>-0.03651965196519651</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
+          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03817430617430618</v>
+        <v>-0.003852385238523852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02137755337755338</v>
+        <v>-0.01198919891989199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006511518511518512</v>
+        <v>-0.008196819681968196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03204876804876805</v>
+        <v>0.006576657665766576</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007456687456687456</v>
+        <v>0.03114311431143114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
+          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007875739875739876</v>
+        <v>-0.01683768376837684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.007158799158799159</v>
+        <v>0.1497389738973897</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01351882951882952</v>
+        <v>0.002076207620762076</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.03712780912780913</v>
+        <v>-0.1387458745874587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0191951591951592</v>
+        <v>0.01288928892889289</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
+          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0211923091923092</v>
+        <v>-0.008724872487248724</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03598335598335599</v>
+        <v>0.007092709270927092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02545550545550546</v>
+        <v>-0.09095709570957093</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
+          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0283985323985324</v>
+        <v>-0.01316531653165316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01180829980829981</v>
+        <v>-0.04721272127212721</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.03946217146217147</v>
+        <v>-0.1793339333933393</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.02512825312825313</v>
+        <v>0.08781278127812782</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.006940614940614941</v>
+        <v>-0.03677167716771677</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.02561188961188962</v>
+        <v>-0.1266126612661266</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01408544608544609</v>
+        <v>0.0543054305430543</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02782457182457183</v>
+        <v>0.1137473747374737</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.11604866004866</v>
+        <v>0.03183918391839183</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02491520491520492</v>
+        <v>-0.006156615661566157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0003125763125763126</v>
+        <v>-0.06099009900990098</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.05265524865524866</v>
+        <v>-0.08825682568256825</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.06284567084567085</v>
+        <v>-0.02449444944494449</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
+          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.001455169455169455</v>
+        <v>0.1056345634563456</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.03528058728058728</v>
+        <v>-0.03306330633063306</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.0289038289038289</v>
+        <v>-0.01561356135613561</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.07600633600633601</v>
+        <v>0.002292229222922292</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.02616228216228217</v>
+        <v>-0.0255025502550255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01936473136473137</v>
+        <v>0.05688568856885688</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04328869928869929</v>
+        <v>0.1468466846684668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02811617211617212</v>
+        <v>0.2093129312931293</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.04741810741810742</v>
+        <v>-0.08808880888088808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01207074007074007</v>
+        <v>-0.2119411941194119</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.03568790368790369</v>
+        <v>-0.05638163816381637</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.0310911430911431</v>
+        <v>-0.0736033603360336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01243449643449644</v>
+        <v>-0.1037263726372637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.002045138045138045</v>
+        <v>0.06115811581158116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.06217908217908218</v>
+        <v>-0.05317731773177317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
+          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.007375027375027376</v>
+        <v>0.1474227422742274</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.05025012225012225</v>
+        <v>-0.1203000300030003</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.04363960363960365</v>
+        <v>0.03503150315031503</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
+          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.05317009717009717</v>
+        <v>0.02772277227722772</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.03774796974796975</v>
+        <v>-0.1825382538253825</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.02640609840609841</v>
+        <v>-0.06444644464446445</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.00624972624972625</v>
+        <v>-0.07341134113411341</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.138402138402139e-05</v>
+        <v>0.1695169516951695</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.05995299595299596</v>
+        <v>0.2228982898289829</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02248166248166248</v>
+        <v>-0.1422022202220222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0118985038985039</v>
+        <v>-0.1755655565556556</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02884332484332484</v>
+        <v>0.1967116711671167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02278621078621079</v>
+        <v>0.1082388238823882</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.03961371961371962</v>
+        <v>0.05383738373837383</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.02353517953517954</v>
+        <v>-0.1853585358535853</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.0653004293004293</v>
+        <v>0.005100510051005099</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.01381141381141381</v>
+        <v>-0.01608160816081608</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02848292848292848</v>
+        <v>0.05866186618661866</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.0128967968967969</v>
+        <v>-0.1400300030003</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.003111111111111111</v>
+        <v>0.06787878787878787</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.02495122895122895</v>
+        <v>-0.05086108610861085</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0285009165009165</v>
+        <v>0.1524992499249925</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.06493361293361294</v>
+        <v>-0.1024662466246624</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0235059715059715</v>
+        <v>0.1241284128412841</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02846795246795247</v>
+        <v>-0.08268826882688267</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.008428328428328429</v>
+        <v>-0.2862406240624062</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01947561147561148</v>
+        <v>-0.2024962496249625</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.03637092037092038</v>
+        <v>-0.1158115811581158</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.02189337389337389</v>
+        <v>-0.1322652265226522</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.003550719550719551</v>
+        <v>-0.110987098709871</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.02892599292599293</v>
+        <v>0.04388838883888389</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06207019407019407</v>
+        <v>-0.01472547254725472</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01215667215667216</v>
+        <v>0.1455385538553855</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.03055407055407056</v>
+        <v>-0.04249624962496249</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.04878795678795679</v>
+        <v>0.05052505250525052</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01248798048798049</v>
+        <v>-0.1056705670567057</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.04986292986292986</v>
+        <v>-0.1851785178517852</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01352905352905353</v>
+        <v>-0.005892589258925892</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.08723525123525123</v>
+        <v>-0.05020102010201019</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.08316598716598718</v>
+        <v>0.08060006000600059</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02071254871254871</v>
+        <v>-0.2364596459645965</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.01274418074418075</v>
+        <v>-0.07776777677767775</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.02635339435339436</v>
+        <v>0.1129072907290729</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.01223456423456423</v>
+        <v>0.0102010201020102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.01628744828744829</v>
+        <v>-0.07317131713171317</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0243926043926044</v>
+        <v>0.04801680168016801</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.02996942996942997</v>
+        <v>0.1139393939393939</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.05067699867699868</v>
+        <v>-0.09548154815481548</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.0402893922893923</v>
+        <v>0.1108190819081908</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.06674525474525475</v>
+        <v>0.1583438343834383</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.03325334125334126</v>
+        <v>0.1452145214521452</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.03874163074163074</v>
+        <v>0.005496549654965496</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.0259043779043779</v>
+        <v>-0.03534353435343535</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.05304794904794904</v>
+        <v>0.05915391539153914</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.04168601368601369</v>
+        <v>0.2501770177017701</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.02756105156105157</v>
+        <v>0.1277287728772877</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.04156081756081757</v>
+        <v>0.02922292229222922</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.01034842634842635</v>
+        <v>0.01514551455145514</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.03172461172461173</v>
+        <v>-0.006924692469246924</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.01635022035022035</v>
+        <v>-0.06022202220222022</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.01330592530592531</v>
+        <v>-0.09545754575457545</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.01102576702576703</v>
+        <v>0.05938193819381938</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.01388497388497388</v>
+        <v>-0.1158115811581158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.01391623391623392</v>
+        <v>0.07647164716471647</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.02817031617031618</v>
+        <v>0.04334833483348334</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.005355557355557356</v>
+        <v>0.1290609060906091</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.01337611337611338</v>
+        <v>-0.03833183318331833</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.04414367614367615</v>
+        <v>0.08697269726972696</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.03352612552612552</v>
+        <v>0.2002760276027603</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.01280583680583681</v>
+        <v>0.04241224122412241</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.07545009945009945</v>
+        <v>0.04126012601260126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.0440994800994801</v>
+        <v>0.01411341134113411</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.02975948975948976</v>
+        <v>0.0650945094509451</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.01764217764217765</v>
+        <v>0.03507950795079508</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.0306981306981307</v>
+        <v>0.07264326432643263</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.006013338013338014</v>
+        <v>0.1827782778277827</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.03663405663405664</v>
+        <v>0.05204920492049204</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.02535506535506536</v>
+        <v>-0.07141914191419141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.02799042399042399</v>
+        <v>0.09725772577257724</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.003672015672015673</v>
+        <v>-0.05545754575457545</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.04043311643311644</v>
+        <v>-0.1316651665166517</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.04007626007626008</v>
+        <v>-0.1532433243324332</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.03072615072615073</v>
+        <v>-0.01191719171917192</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.05189041589041589</v>
+        <v>0.1766576657665766</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.003945327945327945</v>
+        <v>-0.01444944494449445</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.03545499545499545</v>
+        <v>-0.0147974797479748</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.03875658275658276</v>
+        <v>-0.004764476447644764</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.03699127299127299</v>
+        <v>-0.01644164416441644</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.026005178005178</v>
+        <v>-0.02838283828382838</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.02596824196824197</v>
+        <v>-0.05144914491449144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.04242112242112242</v>
+        <v>-0.02000600060006</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.003372675372675373</v>
+        <v>0.2068766876687668</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.01538936738936739</v>
+        <v>-0.004572457245724572</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.02319315519315519</v>
+        <v>-0.1099069906990699</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.01932911532911533</v>
+        <v>0.2965256525652565</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.07581351981351983</v>
+        <v>0.02127812781278128</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.02418717618717619</v>
+        <v>-0.08682868286828681</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.02346058746058746</v>
+        <v>0.08712871287128712</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.008056340056340056</v>
+        <v>-0.1422982298229823</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.02105118905118905</v>
+        <v>-0.1372937293729373</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0332031092031092</v>
+        <v>-0.07537953795379537</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.03527656727656728</v>
+        <v>0.2339033903390339</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.04174123774123774</v>
+        <v>-0.02755475547554755</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.02039045639045639</v>
+        <v>0.1250765076507651</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.02171493371493372</v>
+        <v>-0.05597359735973596</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.08091291291291292</v>
+        <v>0.04633663366336633</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.01822048222048222</v>
+        <v>0.05086108610861085</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.01562894762894763</v>
+        <v>0.01735373537353735</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0407980847980848</v>
+        <v>-0.1006060606060606</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.02118378918378918</v>
+        <v>-0.1316051605160516</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.01210924810924811</v>
+        <v>-0.02093009300930092</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.0003953763953763954</v>
+        <v>0.01743774377437744</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.006812718812718813</v>
+        <v>-0.1271407140714071</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
+          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.01318071718071718</v>
+        <v>0.01293729372937294</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.01804332604332604</v>
+        <v>0.1341734173417342</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.02316002316002316</v>
+        <v>-0.02011401140114011</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.002861150861150861</v>
+        <v>-0.1593399339933993</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.01316079716079716</v>
+        <v>0.02186618661866186</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.01320400920400921</v>
+        <v>0.1023582358235823</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.002570882570882571</v>
+        <v>0.02301830183018301</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.01938156738156738</v>
+        <v>0.2125172517251725</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.03187606387606388</v>
+        <v>-0.06323432343234323</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.02671302271302272</v>
+        <v>-0.002028202820282028</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.003514419514419514</v>
+        <v>0.0225022502250225</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.02024991224991225</v>
+        <v>0.05494149414941494</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.02838622038622039</v>
+        <v>0.1997959795979598</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.02082821682821683</v>
+        <v>-0.1526792679267927</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.02141663741663742</v>
+        <v>-0.07077107710771076</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.01038518238518239</v>
+        <v>0.04508850885088508</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.01055332655332655</v>
+        <v>0.07348334833483347</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.0001390801390801391</v>
+        <v>-0.1206720672067207</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.03442990642990643</v>
+        <v>-0.06072607260726072</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.02772684372684373</v>
+        <v>0.05604560456045604</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.04003057603057603</v>
+        <v>0.1162196219621962</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-0.008382068382068383</v>
+        <v>-0.04304830483048305</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.01920520320520321</v>
+        <v>-0.08189618961896189</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.01911301911301911</v>
+        <v>-0.02072607260726072</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.007871803871803874</v>
+        <v>-0.09482148214821481</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.09826335826335826</v>
+        <v>0.05647764776477647</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.00243980643980644</v>
+        <v>-0.05142514251425142</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.02734008334008334</v>
+        <v>0.01773777377737773</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.03258108858108858</v>
+        <v>0.03131113111311131</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.08430362430362431</v>
+        <v>0.07241524152415241</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.0530961290961291</v>
+        <v>0.01729372937293729</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.01842061842061842</v>
+        <v>-0.05402940294029403</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.06456973656973657</v>
+        <v>0.05256525652565257</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.02678300678300679</v>
+        <v>0.05117311731173117</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.07255230055230055</v>
+        <v>0.06846684668466846</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.03152812352812353</v>
+        <v>-0.03402340234023402</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.440934932934933</v>
+        <v>0.1172517251725172</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
+          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.1944722664722665</v>
+        <v>0.1842544254425442</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.03803880203880204</v>
+        <v>0.05228922892289228</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
+          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.01688474888474889</v>
+        <v>0.05076507650765077</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.05466820266820267</v>
+        <v>0.03533153315331532</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.01414857814857815</v>
+        <v>0.1775217521752175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.09073851073851075</v>
+        <v>-0.09687368736873686</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.06505465705465706</v>
+        <v>-0.005160516051605159</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.02023802023802024</v>
+        <v>0.3087188718871887</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.00600973800973801</v>
+        <v>0.2281308130813081</v>
       </c>
     </row>
     <row r="216">
@@ -2520,17 +2520,17 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.05571939171939173</v>
+        <v>-0.06109810981098109</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Stream-ethanol price (USD/kg) [0.647, 0.719, 0.791]</t>
+          <t>Stream-ethanol price (USD/kg) [0.629, 0.699, 0.769]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.003851559851559852</v>
+        <v>-0.1062586258625862</v>
       </c>
     </row>
     <row r="218">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.1316675516675517</v>
+        <v>-0.3088028802880288</v>
       </c>
     </row>
     <row r="219">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.04182278982278983</v>
+        <v>0.05690969096909691</v>
       </c>
     </row>
     <row r="220">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.03842891042891043</v>
+        <v>-0.1721812181218122</v>
       </c>
     </row>
     <row r="221">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.005687693687693688</v>
+        <v>0.07885988598859886</v>
       </c>
     </row>
     <row r="222">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.03242542442542443</v>
+        <v>-0.04946894689468947</v>
       </c>
     </row>
     <row r="223">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.2456030336030336</v>
+        <v>0.354107410741074</v>
       </c>
     </row>
     <row r="224">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.05604207204207204</v>
+        <v>0.02087008700870087</v>
       </c>
     </row>
     <row r="225">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.02654957054957055</v>
+        <v>0.03795979597959796</v>
       </c>
     </row>
     <row r="226">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.06488099288099287</v>
+        <v>-0.1368136813681368</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6101170117011701</v>
+        <v>-0.7189558955895589</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09053705370537053</v>
+        <v>-0.32002400240024</v>
       </c>
     </row>
     <row r="4">
@@ -400,1207 +400,1207 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3228202820282028</v>
+        <v>-0.2217701770177017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.192043204320432</v>
+        <v>0.09384938493849383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Flash tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01344134413441344</v>
+        <v>-0.03297929792979298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08578457845784578</v>
+        <v>0.1179237923792379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Flash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1253285328532853</v>
+        <v>-0.07243924392439244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02209420942094209</v>
+        <v>0.06354635463546354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02165016501650165</v>
+        <v>-0.1850825082508251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02699069906990699</v>
+        <v>0.04758475847584757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06354635463546354</v>
+        <v>0.01692169216921692</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08229222922292229</v>
+        <v>-0.05246924692469247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1384698469846985</v>
+        <v>0.05623762376237623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03651965196519651</v>
+        <v>-0.1277047704770477</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.003852385238523852</v>
+        <v>-0.1613321332133213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
+          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01198919891989199</v>
+        <v>0.05747374737473747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008196819681968196</v>
+        <v>-0.001848184818481848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006576657665766576</v>
+        <v>0.04697269726972696</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03114311431143114</v>
+        <v>-0.06217821782178217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01683768376837684</v>
+        <v>0.07774377437743775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1497389738973897</v>
+        <v>0.008244824482448244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002076207620762076</v>
+        <v>-0.05713771377137713</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1387458745874587</v>
+        <v>0.2493009300930093</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01288928892889289</v>
+        <v>0.000528052805280528</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.008724872487248724</v>
+        <v>0.1004620462046204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007092709270927092</v>
+        <v>0.07990399039903991</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.09095709570957093</v>
+        <v>0.01396939693969397</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.01316531653165316</v>
+        <v>-0.1308490849084908</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.04721272127212721</v>
+        <v>-0.1311131113111311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1793339333933393</v>
+        <v>0.09629762976297629</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08781278127812782</v>
+        <v>-0.02898289828982898</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.03677167716771677</v>
+        <v>0.1414941494149415</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1266126612661266</v>
+        <v>0.05816981698169817</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0543054305430543</v>
+        <v>-0.1237923792379238</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1137473747374737</v>
+        <v>-0.03912391239123913</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03183918391839183</v>
+        <v>0.008340834083408339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.006156615661566157</v>
+        <v>0.003972397239723972</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.06099009900990098</v>
+        <v>-0.1293489348934893</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor reciever tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.08825682568256825</v>
+        <v>-0.1182598259825983</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.02449444944494449</v>
+        <v>0.03533153315331532</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1056345634563456</v>
+        <v>-0.01848184818481848</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.03306330633063306</v>
+        <v>-0.1263846384638464</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.01561356135613561</v>
+        <v>-0.1443624362436244</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.002292229222922292</v>
+        <v>0.01090909090909091</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.0255025502550255</v>
+        <v>0.09306930693069307</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.05688568856885688</v>
+        <v>-0.05526552655265525</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1468466846684668</v>
+        <v>-0.1184158415841584</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2093129312931293</v>
+        <v>0.05921392139213921</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.08808880888088808</v>
+        <v>0.04634863486348634</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.2119411941194119</v>
+        <v>-0.03974797479747975</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.05638163816381637</v>
+        <v>0.0993339333933393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.0736033603360336</v>
+        <v>0.1458025802580258</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.1037263726372637</v>
+        <v>0.1778097809780978</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.06115811581158116</v>
+        <v>-0.1118511851185118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.05317731773177317</v>
+        <v>0.007356735673567355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1474227422742274</v>
+        <v>0.08578457845784578</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.1203000300030003</v>
+        <v>-0.001428142814281428</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03503150315031503</v>
+        <v>0.03372337233723372</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02772277227722772</v>
+        <v>0.08969696969696968</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1825382538253825</v>
+        <v>-0.05016501650165017</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.06444644464446445</v>
+        <v>0.1382658265826582</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.07341134113411341</v>
+        <v>-0.105058505850585</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1695169516951695</v>
+        <v>0.0392079207920792</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2228982898289829</v>
+        <v>0.008736873687368736</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1422022202220222</v>
+        <v>-0.09074107410741072</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.1755655565556556</v>
+        <v>-0.009852985298529853</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1967116711671167</v>
+        <v>0.202988298829883</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1082388238823882</v>
+        <v>0.04038403840384037</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.05383738373837383</v>
+        <v>0.05473747374737473</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1853585358535853</v>
+        <v>0.05078907890789078</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
+          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.005100510051005099</v>
+        <v>-0.155955595559556</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.01608160816081608</v>
+        <v>0.03878787878787878</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.05866186618661866</v>
+        <v>-0.01528952895289529</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
+          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1400300030003</v>
+        <v>-0.09533753375337534</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.06787878787878787</v>
+        <v>0.02847884788478848</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.05086108610861085</v>
+        <v>-0.08648064806480647</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1524992499249925</v>
+        <v>0.02625862586258626</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1024662466246624</v>
+        <v>0.0955055505550555</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1241284128412841</v>
+        <v>0.1965436543654365</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.08268826882688267</v>
+        <v>0.1116351635163516</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter dry air compressor receiver tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.2862406240624062</v>
+        <v>-0.1364176417641764</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+          <t>Pressure filter dry air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.2024962496249625</v>
+        <v>0.1404980498049805</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.1158115811581158</v>
+        <v>-0.1613921392139214</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.1322652265226522</v>
+        <v>-0.01039303930393039</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.110987098709871</v>
+        <v>0.08345634563456344</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter pressing air compressor receiver tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.04388838883888389</v>
+        <v>0.05239723972397239</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+          <t>Pressure filter pressing air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.01472547254725472</v>
+        <v>0.11003900390039</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1455385538553855</v>
+        <v>0.08199219921992197</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.04249624962496249</v>
+        <v>0.1517191719171917</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05052505250525052</v>
+        <v>0.08418841884188417</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.1056705670567057</v>
+        <v>0.164020402040204</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.1851785178517852</v>
+        <v>-0.02385838583858386</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.005892589258925892</v>
+        <v>0.0905130513051305</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.05020102010201019</v>
+        <v>0.07865586558655864</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.08060006000600059</v>
+        <v>0.03259525952595259</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.2364596459645965</v>
+        <v>-0.01582958295829583</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.07776777677767775</v>
+        <v>0.007716771677167716</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1129072907290729</v>
+        <v>-0.1211041104110411</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0102010201020102</v>
+        <v>-0.08026402640264024</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
+          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.07317131713171317</v>
+        <v>0.02901890189018901</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.04801680168016801</v>
+        <v>0.04334833483348334</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1139393939393939</v>
+        <v>-0.1581998199819982</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.09548154815481548</v>
+        <v>-0.1021182118211821</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1108190819081908</v>
+        <v>-0.06526252625262526</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1583438343834383</v>
+        <v>-0.07039903990399039</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1452145214521452</v>
+        <v>-0.08949294929492949</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.005496549654965496</v>
+        <v>-0.08440444044404438</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.03534353435343535</v>
+        <v>-0.008688868886888688</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.05915391539153914</v>
+        <v>-0.1461266126612661</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.2501770177017701</v>
+        <v>-0.02637863786378638</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1277287728772877</v>
+        <v>0.04046804680468046</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.02922292229222922</v>
+        <v>0.1587038703870387</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01514551455145514</v>
+        <v>-0.1109150915091509</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.006924692469246924</v>
+        <v>0.09485748574857485</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.06022202220222022</v>
+        <v>0.07942394239423942</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.09545754575457545</v>
+        <v>-0.009324932493249324</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.05938193819381938</v>
+        <v>-0.01765376537653765</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.1158115811581158</v>
+        <v>-0.05311731173117312</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.07647164716471647</v>
+        <v>0.08254425442544253</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.04334833483348334</v>
+        <v>0.1527632763276328</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1290609060906091</v>
+        <v>-0.00414041404140414</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.03833183318331833</v>
+        <v>-0.1275007500750075</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+          <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.08697269726972696</v>
+        <v>0.1336453645364536</v>
       </c>
     </row>
     <row r="125">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.2002760276027603</v>
+        <v>-0.06705070507050705</v>
       </c>
     </row>
     <row r="126">
@@ -1620,857 +1620,857 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.04241224122412241</v>
+        <v>-0.1678607860786078</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.04126012601260126</v>
+        <v>-0.02755475547554755</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01411341134113411</v>
+        <v>0.05116111611161115</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0650945094509451</v>
+        <v>0.04153615361536153</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.03507950795079508</v>
+        <v>-0.1798019801980198</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+          <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.07264326432643263</v>
+        <v>-0.09162916291629163</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+          <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1827782778277827</v>
+        <v>-0.08104410441044103</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.05204920492049204</v>
+        <v>0.1321572157215721</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+          <t>Pretreatment flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.07141914191419141</v>
+        <v>0.08778877887788777</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.09725772577257724</v>
+        <v>-0.09748574857485746</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+          <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.05545754575457545</v>
+        <v>-0.2234023402340234</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+          <t>Pretreatment flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.1316651665166517</v>
+        <v>-0.06845484548454844</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.1532433243324332</v>
+        <v>-0.1521992199219922</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+          <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.01191719171917192</v>
+        <v>-0.0261026102610261</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1766576657665766</v>
+        <v>0.0315991599159916</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.01444944494449445</v>
+        <v>0.03944794479447945</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.0147974797479748</v>
+        <v>0.07163516351635163</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.004764476447644764</v>
+        <v>0.1209360936093609</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.01644164416441644</v>
+        <v>0.07306330633063306</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.02838283828382838</v>
+        <v>0.05641764176417641</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.05144914491449144</v>
+        <v>-0.06083408340834083</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
+          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.02000600060006</v>
+        <v>0.1913711371137113</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.2068766876687668</v>
+        <v>-0.0123012301230123</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.004572457245724572</v>
+        <v>-0.0285988598859886</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.1099069906990699</v>
+        <v>-0.007620762076207619</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.2965256525652565</v>
+        <v>0.1256165616561656</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
+          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.02127812781278128</v>
+        <v>0.06249024902490248</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.08682868286828681</v>
+        <v>-0.006156615661566157</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.08712871287128712</v>
+        <v>-0.1332133213321332</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.1422982298229823</v>
+        <v>-0.01891389138913891</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.1372937293729373</v>
+        <v>0.06234623462346234</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
+          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.07537953795379537</v>
+        <v>0.0369036903690369</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.2339033903390339</v>
+        <v>0.00714071407140714</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.02755475547554755</v>
+        <v>-0.002676267626762676</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.1250765076507651</v>
+        <v>-0.06381038103810381</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.05597359735973596</v>
+        <v>-0.06131413141314131</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.04633663366336633</v>
+        <v>0.2198859885988599</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.05086108610861085</v>
+        <v>-0.01686168616861686</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.01735373537353735</v>
+        <v>0.06387038703870387</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.1006060606060606</v>
+        <v>0.02526252625262526</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.1316051605160516</v>
+        <v>-0.194047404740474</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.02093009300930092</v>
+        <v>0.09731773177317732</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.01743774377437744</v>
+        <v>-0.07896789678967894</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.1271407140714071</v>
+        <v>-0.02129012901290129</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.01293729372937294</v>
+        <v>-0.007548754875487548</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.1341734173417342</v>
+        <v>0.1352295229522952</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.02011401140114011</v>
+        <v>-0.05306930693069306</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.1593399339933993</v>
+        <v>-0.004884488448844884</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.02186618661866186</v>
+        <v>-0.08307230723072306</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.1023582358235823</v>
+        <v>-0.1483948394839484</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.02301830183018301</v>
+        <v>0.07078307830783077</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.2125172517251725</v>
+        <v>0.07637563756375637</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.06323432343234323</v>
+        <v>-0.1189198919891989</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.002028202820282028</v>
+        <v>-0.08637263726372636</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0225022502250225</v>
+        <v>-0.1244524452445244</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.05494149414941494</v>
+        <v>-0.0911971197119712</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.1997959795979598</v>
+        <v>-0.03201920192019202</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.1526792679267927</v>
+        <v>-0.1267926792679268</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.07077107710771076</v>
+        <v>0.04006000600060006</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.04508850885088508</v>
+        <v>-0.02736273627362736</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Heat Exchanger heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.07348334833483347</v>
+        <v>-0.05995799579957996</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.1206720672067207</v>
+        <v>-0.06873087308730871</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.06072607260726072</v>
+        <v>-0.002844284428442844</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.05604560456045604</v>
+        <v>0.02699069906990699</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1162196219621962</v>
+        <v>-0.1283528352835283</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-0.04304830483048305</v>
+        <v>0.04434443444344434</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.08189618961896189</v>
+        <v>0.01104110411041104</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.02072607260726072</v>
+        <v>-0.04907290729072907</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.09482148214821481</v>
+        <v>-0.0102970297029703</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.05647764776477647</v>
+        <v>-0.138985898589859</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.05142514251425142</v>
+        <v>-0.0679027902790279</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.01773777377737773</v>
+        <v>0.1334533453345334</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.03131113111311131</v>
+        <v>0.2446324632463246</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.07241524152415241</v>
+        <v>0.0896009600960096</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
+          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.01729372937293729</v>
+        <v>-0.1375937593759376</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.05402940294029403</v>
+        <v>0.1657725772577258</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.05256525652565257</v>
+        <v>-0.1392619261926192</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.05117311731173117</v>
+        <v>-0.04855685568556855</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.06846684668466846</v>
+        <v>0.03063906390639063</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.03402340234023402</v>
+        <v>-0.0196099609960996</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.1172517251725172</v>
+        <v>-0.07470747074707469</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.1842544254425442</v>
+        <v>-0.02281428142814281</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.05228922892289228</v>
+        <v>0.02382238223822382</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.05076507650765077</v>
+        <v>0.1124632463246324</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.03533153315331532</v>
+        <v>0.02706270627062706</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.1775217521752175</v>
+        <v>0.3232283228322832</v>
       </c>
     </row>
     <row r="212">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.09687368736873686</v>
+        <v>-0.09372937293729372</v>
       </c>
     </row>
     <row r="213">
@@ -2490,47 +2490,47 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.005160516051605159</v>
+        <v>0.07077107710771076</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.3087188718871887</v>
+        <v>0.03893189318931892</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
+          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.2281308130813081</v>
+        <v>0.2988298829882988</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
+          <t>Stream-ethanol price (USD/kg) [0.666, 0.74, 0.815]</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.06109810981098109</v>
+        <v>0.1308250825082508</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Stream-ethanol price (USD/kg) [0.629, 0.699, 0.769]</t>
+          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.1062586258625862</v>
+        <v>-0.0679027902790279</v>
       </c>
     </row>
     <row r="218">
@@ -2540,47 +2540,47 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.3088028802880288</v>
+        <v>-0.04289228922892289</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Chilled Brine price (USD/kJ) [-7.33e-06, -8.15e-06, -8.96e-06]</t>
+          <t>chilled brine price (USD/kJ) [7.33e-06, 8.15e-06, 8.96e-06]</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.05690969096909691</v>
+        <v>0.1817341734173417</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Low pressure steam price (USD/kmol) [0.276, 0.306, 0.337]</t>
+          <t>low pressure steam price (USD/kmol) [0.276, 0.306, 0.337]</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.1721812181218122</v>
+        <v>-0.1371017101710171</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Medium pressure steam price (USD/kmol) [0.248, 0.276, 0.303]</t>
+          <t>medium pressure steam price (USD/kmol) [0.248, 0.276, 0.303]</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.07885988598859886</v>
+        <v>0.02143414341434143</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>High pressure steam price (USD/kmol) [0.285, 0.317, 0.349]</t>
+          <t>high pressure steam price (USD/kmol) [0.285, 0.317, 0.349]</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.04946894689468947</v>
+        <v>0.1166996699669967</v>
       </c>
     </row>
     <row r="223">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.354107410741074</v>
+        <v>0.3267686768676867</v>
       </c>
     </row>
     <row r="224">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.02087008700870087</v>
+        <v>0.001284128412841284</v>
       </c>
     </row>
     <row r="225">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.03795979597959796</v>
+        <v>-0.107014701470147</v>
       </c>
     </row>
     <row r="226">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.1368136813681368</v>
+        <v>0.140990099009901</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7189558955895589</v>
+        <v>-0.594992370992371</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.32002400240024</v>
+        <v>-0.2436916236916237</v>
       </c>
     </row>
     <row r="4">
@@ -400,1607 +400,1607 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2217701770177017</v>
+        <v>-0.2638874638874639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09384938493849383</v>
+        <v>-0.006045102045102045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03297929792979298</v>
+        <v>0.02465838065838066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1179237923792379</v>
+        <v>-0.03766011766011766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07243924392439244</v>
+        <v>0.01531334731334731</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06354635463546354</v>
+        <v>0.005341613341613342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1850825082508251</v>
+        <v>-0.03007427407427407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04758475847584757</v>
+        <v>0.00387912387912388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01692169216921692</v>
+        <v>0.01636448836448836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05246924692469247</v>
+        <v>0.01509311109311109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05623762376237623</v>
+        <v>-0.08852209652209653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1277047704770477</v>
+        <v>-0.01204790404790405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1613321332133213</v>
+        <v>-0.01911058311058311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05747374737473747</v>
+        <v>-0.05905273105273106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001848184818481848</v>
+        <v>-0.01455621855621856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04697269726972696</v>
+        <v>-0.06194085794085794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.06217821782178217</v>
+        <v>0.02047078447078447</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07774377437743775</v>
+        <v>0.03359076959076959</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008244824482448244</v>
+        <v>0.0231931911931912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.05713771377137713</v>
+        <v>0.05450922650922652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2493009300930093</v>
+        <v>0.07764299364299364</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.000528052805280528</v>
+        <v>-0.02928137328137329</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1004620462046204</v>
+        <v>0.02417668817668818</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07990399039903991</v>
+        <v>0.00380934380934381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01396939693969397</v>
+        <v>-0.01138677538677539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1308490849084908</v>
+        <v>0.02465102465102465</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1311131113111311</v>
+        <v>-0.02890657690657691</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09629762976297629</v>
+        <v>-0.03073471873471873</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.02898289828982898</v>
+        <v>0.05440756240756241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1414941494149415</v>
+        <v>-0.03216372816372817</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05816981698169817</v>
+        <v>0.00320999120999121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+          <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1237923792379238</v>
+        <v>0.03322632922632923</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.03912391239123913</v>
+        <v>0.01304536904536905</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.008340834083408339</v>
+        <v>-0.001294981294981295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.003972397239723972</v>
+        <v>-0.03638844038844039</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
+          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1293489348934893</v>
+        <v>0.02630078630078631</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1182598259825983</v>
+        <v>-0.01544197544197545</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03533153315331532</v>
+        <v>0.03073416673416674</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
+          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01848184818481848</v>
+        <v>-0.0121967281967282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1263846384638464</v>
+        <v>-0.02475021675021675</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.1443624362436244</v>
+        <v>-0.02309365109365109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01090909090909091</v>
+        <v>0.02626567426567427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.09306930693069307</v>
+        <v>-0.05117234717234718</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.05526552655265525</v>
+        <v>-0.003334707334707335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1184158415841584</v>
+        <v>-0.02115224115224115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.05921392139213921</v>
+        <v>0.0296040656040656</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.04634863486348634</v>
+        <v>0.006755250755250756</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.03974797479747975</v>
+        <v>-0.03938753138753139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0993339333933393</v>
+        <v>-0.02496128496128496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1458025802580258</v>
+        <v>-0.004993648993648995</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1778097809780978</v>
+        <v>0.1300381420381421</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1118511851185118</v>
+        <v>-0.07043312243312244</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.007356735673567355</v>
+        <v>0.04496908496908497</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.08578457845784578</v>
+        <v>0.01904188304188304</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.001428142814281428</v>
+        <v>-0.02236549036549037</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03372337233723372</v>
+        <v>0.0397960597960598</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.08969696969696968</v>
+        <v>0.007647391647391648</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.05016501650165017</v>
+        <v>-0.008214932214932217</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1382658265826582</v>
+        <v>0.03824622224622225</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
+          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.105058505850585</v>
+        <v>-0.02602386202386202</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0392079207920792</v>
+        <v>0.02182940182940183</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.008736873687368736</v>
+        <v>-0.02744276744276744</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.09074107410741072</v>
+        <v>-0.01403691803691804</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.009852985298529853</v>
+        <v>0.0009665889665889666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
+          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.202988298829883</v>
+        <v>0.01585245985245985</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.04038403840384037</v>
+        <v>-0.008206544206544208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.05473747374737473</v>
+        <v>-0.02123106923106923</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.05078907890789078</v>
+        <v>0.03111465111465112</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.155955595559556</v>
+        <v>-0.03207802407802408</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.03878787878787878</v>
+        <v>-0.008460788460788462</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.01528952895289529</v>
+        <v>0.02233859833859834</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.09533753375337534</v>
+        <v>-0.007728499728499729</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02847884788478848</v>
+        <v>-0.004334740334740335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.08648064806480647</v>
+        <v>0.1693372213372213</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02625862586258626</v>
+        <v>0.004478728478728479</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0955055505550555</v>
+        <v>-0.01846458646458646</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1965436543654365</v>
+        <v>-0.02318890718890719</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1116351635163516</v>
+        <v>0.01188460788460789</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor receiver tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.1364176417641764</v>
+        <v>-0.02106534906534907</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1404980498049805</v>
+        <v>-0.02766135966135966</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.1613921392139214</v>
+        <v>0.005328233328233328</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.01039303930393039</v>
+        <v>-0.000680964680964681</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08345634563456344</v>
+        <v>0.07720844920844921</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor receiver tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05239723972397239</v>
+        <v>-0.06754167154167155</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.11003900390039</v>
+        <v>0.08906675306675307</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08199219921992197</v>
+        <v>0.03223583623583624</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1517191719171917</v>
+        <v>0.05702854502854503</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08418841884188417</v>
+        <v>-0.006654030654030654</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+          <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.164020402040204</v>
+        <v>-7.718407718407719e-05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+          <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.02385838583858386</v>
+        <v>0.02444178044178044</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+          <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0905130513051305</v>
+        <v>-0.02750954750954751</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+          <t>Pretreatment flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.07865586558655864</v>
+        <v>0.006529074529074529</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+          <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03259525952595259</v>
+        <v>0.01727035727035727</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+          <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.01582958295829583</v>
+        <v>0.05216722016722017</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pretreatment flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.007716771677167716</v>
+        <v>-0.08687315087315088</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.1211041104110411</v>
+        <v>-0.04953895353895355</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.08026402640264024</v>
+        <v>-0.04454331254331255</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02901890189018901</v>
+        <v>-0.0008943368943368943</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.04334833483348334</v>
+        <v>0.02543336543336544</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.1581998199819982</v>
+        <v>0.07008428208428209</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.1021182118211821</v>
+        <v>-0.03269258069258069</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.06526252625262526</v>
+        <v>0.01652526452526453</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.07039903990399039</v>
+        <v>0.03182872382872383</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.08949294929492949</v>
+        <v>-0.005587577587577588</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.08440444044404438</v>
+        <v>-0.01478252678252679</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.008688868886888688</v>
+        <v>-0.03599215199215199</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.1461266126612661</v>
+        <v>-0.02978893778893779</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.02637863786378638</v>
+        <v>-0.00145922545922546</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.04046804680468046</v>
+        <v>0.02446647646647647</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1587038703870387</v>
+        <v>0.009559569559569561</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.1109150915091509</v>
+        <v>-0.03048288648288648</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.09485748574857485</v>
+        <v>0.04228294228294228</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
+          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.07942394239423942</v>
+        <v>0.003354063354063355</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.009324932493249324</v>
+        <v>0.02644133044133045</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.01765376537653765</v>
+        <v>-0.05527365127365128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.05311731173117312</v>
+        <v>0.03637416037416038</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter dry air compressor receiver tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.08254425442544253</v>
+        <v>0.01828650628650629</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Pressure filter dry air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1527632763276328</v>
+        <v>-0.02266567066567067</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.00414041404140414</v>
+        <v>-0.02438256038256038</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.1275007500750075</v>
+        <v>0.03444503844503845</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1336453645364536</v>
+        <v>-0.03919218319218319</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+          <t>Pressure filter pressing air compressor receiver tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.06705070507050705</v>
+        <v>-0.009561549561549563</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter pressing air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.1678607860786078</v>
+        <v>-0.005484929484929485</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.02755475547554755</v>
+        <v>-0.02505531705531706</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.05116111611161115</v>
+        <v>0.01573890373890374</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.04153615361536153</v>
+        <v>-0.003795531795531796</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.1798019801980198</v>
+        <v>0.003347115347115347</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.09162916291629163</v>
+        <v>-0.02082308082308082</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.08104410441044103</v>
+        <v>-0.01623805623805624</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1321572157215721</v>
+        <v>0.02646597846597847</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.08778877887788777</v>
+        <v>-0.005206025206025207</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.09748574857485746</v>
+        <v>-0.07566655566655567</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.2234023402340234</v>
+        <v>-0.01241012441012441</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.06845484548454844</v>
+        <v>-0.001244569244569244</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.1521992199219922</v>
+        <v>0.03613677613677614</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.0261026102610261</v>
+        <v>-0.0433960153960154</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0315991599159916</v>
+        <v>0.06348444348444349</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.03944794479447945</v>
+        <v>-0.04775437175437176</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.07163516351635163</v>
+        <v>0.006472278472278474</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1209360936093609</v>
+        <v>-0.004262596262596263</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.07306330633063306</v>
+        <v>0.02935786135786136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.05641764176417641</v>
+        <v>-0.02115846915846916</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.06083408340834083</v>
+        <v>0.009595545595545596</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.1913711371137113</v>
+        <v>-0.05634510834510835</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.0123012301230123</v>
+        <v>0.04130953730953731</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.0285988598859886</v>
+        <v>-0.01006418206418207</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
+          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.007620762076207619</v>
+        <v>-0.005238749238749239</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.1256165616561656</v>
+        <v>0.02001264801264802</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.06249024902490248</v>
+        <v>-0.0316957756957757</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
+          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.006156615661566157</v>
+        <v>-0.07018209418209419</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.1332133213321332</v>
+        <v>0.01018725418725419</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.01891389138913891</v>
+        <v>-0.01178240378240378</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.06234623462346234</v>
+        <v>-0.02483620883620884</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0369036903690369</v>
+        <v>-0.03824760224760226</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.00714071407140714</v>
+        <v>-0.03256521256521257</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.002676267626762676</v>
+        <v>0.06764890364890365</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.06381038103810381</v>
+        <v>0.0127988287988288</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.06131413141314131</v>
+        <v>0.02202277002277002</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2198859885988599</v>
+        <v>0.00438016038016038</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.01686168616861686</v>
+        <v>0.01262302862302862</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.06387038703870387</v>
+        <v>-0.01787047787047787</v>
       </c>
     </row>
     <row r="165">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.02526252625262526</v>
+        <v>0.002611670611670612</v>
       </c>
     </row>
     <row r="166">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.194047404740474</v>
+        <v>-0.03521851121851122</v>
       </c>
     </row>
     <row r="167">
@@ -2030,437 +2030,437 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.09731773177317732</v>
+        <v>-0.02027177627177627</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.07896789678967894</v>
+        <v>0.01634933234933235</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.02129012901290129</v>
+        <v>0.003364431364431365</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.007548754875487548</v>
+        <v>0.04987078987078988</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.1352295229522952</v>
+        <v>0.008973044973044974</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.05306930693069306</v>
+        <v>-0.0536010296010296</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.004884488448844884</v>
+        <v>-0.02610816210816211</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.08307230723072306</v>
+        <v>0.01883117483117483</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.1483948394839484</v>
+        <v>0.003054843054843055</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.07078307830783077</v>
+        <v>-0.05240986040986042</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.07637563756375637</v>
+        <v>0.01521867921867922</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.1189198919891989</v>
+        <v>0.05978205578205579</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.08637263726372636</v>
+        <v>0.02004512004512005</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.1244524452445244</v>
+        <v>-0.07287790887790889</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.0911971197119712</v>
+        <v>-0.05678255678255679</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.03201920192019202</v>
+        <v>-0.0210947730947731</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+          <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.1267926792679268</v>
+        <v>-0.03416380616380617</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.04006000600060006</v>
+        <v>0.06323083523083524</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.02736273627362736</v>
+        <v>-0.01183094383094383</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.05995799579957996</v>
+        <v>0.0663990303990304</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.06873087308730871</v>
+        <v>0.0005026205026205027</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.002844284428442844</v>
+        <v>0.000703884703884704</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.02699069906990699</v>
+        <v>0.01185825585825586</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.1283528352835283</v>
+        <v>0.002188874188874189</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.04434443444344434</v>
+        <v>0.009573909573909575</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.01104110411041104</v>
+        <v>-0.002633018633018633</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.04907290729072907</v>
+        <v>-0.04615874215874216</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.0102970297029703</v>
+        <v>0.02041342441342442</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.138985898589859</v>
+        <v>0.03916703116703117</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.0679027902790279</v>
+        <v>0.007707055707055708</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.1334533453345334</v>
+        <v>-0.009247965247965249</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.2446324632463246</v>
+        <v>0.002496302496302496</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0896009600960096</v>
+        <v>-0.03147820347820348</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.1375937593759376</v>
+        <v>0.06310601110601111</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.1657725772577258</v>
+        <v>-0.03301370101370102</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.1392619261926192</v>
+        <v>0.006480402480402481</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.04855685568556855</v>
+        <v>0.02090544890544891</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.03063906390639063</v>
+        <v>0.003241107241107241</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
+          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.0196099609960996</v>
+        <v>-0.02789123189123189</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.07470747074707469</v>
+        <v>-0.03213680013680014</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.02281428142814281</v>
+        <v>-0.004956880956880957</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.02382238223822382</v>
+        <v>0.04403548403548404</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.1124632463246324</v>
+        <v>0.01881244281244281</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+          <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.02706270627062706</v>
+        <v>0.01334949734949735</v>
       </c>
     </row>
     <row r="211">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.3232283228322832</v>
+        <v>0.2198876798876799</v>
       </c>
     </row>
     <row r="212">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.09372937293729372</v>
+        <v>0.01207854007854008</v>
       </c>
     </row>
     <row r="213">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.07077107710771076</v>
+        <v>0.005544569544569545</v>
       </c>
     </row>
     <row r="214">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.03893189318931892</v>
+        <v>-0.00490975690975691</v>
       </c>
     </row>
     <row r="215">
@@ -2510,27 +2510,27 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.2988298829882988</v>
+        <v>0.4654979854979856</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Stream-ethanol price (USD/kg) [0.666, 0.74, 0.815]</t>
+          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.1308250825082508</v>
+        <v>0.01206666006666007</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
+          <t>Stream-ethanol price (USD/kg) [0.698, 0.776, 0.853]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.0679027902790279</v>
+        <v>0.04040646440646441</v>
       </c>
     </row>
     <row r="218">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.04289228922892289</v>
+        <v>-0.1172043092043092</v>
       </c>
     </row>
     <row r="219">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.1817341734173417</v>
+        <v>-0.01605100005100005</v>
       </c>
     </row>
     <row r="220">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.1371017101710171</v>
+        <v>0.1003543963543964</v>
       </c>
     </row>
     <row r="221">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.02143414341434143</v>
+        <v>0.03866675066675067</v>
       </c>
     </row>
     <row r="222">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.1166996699669967</v>
+        <v>-0.003171123171123171</v>
       </c>
     </row>
     <row r="223">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.3267686768676867</v>
+        <v>0.1942073182073182</v>
       </c>
     </row>
     <row r="224">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.001284128412841284</v>
+        <v>0.02483064083064083</v>
       </c>
     </row>
     <row r="225">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.107014701470147</v>
+        <v>0.01515321915321916</v>
       </c>
     </row>
     <row r="226">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.140990099009901</v>
+        <v>-0.01988885588885589</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -380,2077 +380,2077 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.594992370992371</v>
+        <v>-0.599961803961804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation-R301 saccharification conversion [0.85, 0.9, 0.95]</t>
+          <t>Saccharification and co fermentation-R301 saccharification conversion [0.86, 0.9, 0.94]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2436916236916237</v>
+        <v>-0.1701543381543382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation-R301 ethanol conversion [0.9, 0.95, 1]</t>
+          <t>Saccharification and co fermentation-R301 ethanol conversion [0.93, 0.95, 0.97]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2638874638874639</v>
+        <v>-0.06025158025158026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006045102045102045</v>
+        <v>0.003971967971967972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02465838065838066</v>
+        <v>0.01528359928359928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03766011766011766</v>
+        <v>0.01075189075189075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01531334731334731</v>
+        <v>0.0005649845649845649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005341613341613342</v>
+        <v>-0.01640864840864841</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+          <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03007427407427407</v>
+        <v>-0.006318042318042319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00387912387912388</v>
+        <v>0.01308374508374508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01636448836448836</v>
+        <v>0.0005090405090405091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01509311109311109</v>
+        <v>-0.02417774417774418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08852209652209653</v>
+        <v>0.1878237078237079</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01204790404790405</v>
+        <v>-0.001482637482637483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01911058311058311</v>
+        <v>0.06480930480930482</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05905273105273106</v>
+        <v>0.03453351453351453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01455621855621856</v>
+        <v>0.008081900081900082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.06194085794085794</v>
+        <v>0.02483402483402483</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02047078447078447</v>
+        <v>-0.04809057609057609</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03359076959076959</v>
+        <v>0.002882654882654882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0231931911931912</v>
+        <v>-0.01314554514554515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05450922650922652</v>
+        <v>0.07588085188085189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07764299364299364</v>
+        <v>-0.07306586506586507</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02928137328137329</v>
+        <v>-0.04335232335232336</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02417668817668818</v>
+        <v>0.07590878790878791</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00380934380934381</v>
+        <v>0.002037878037878038</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.01138677538677539</v>
+        <v>0.01073162273162273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02465102465102465</v>
+        <v>0.03153953553953554</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.02890657690657691</v>
+        <v>0.005793101793101794</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.03073471873471873</v>
+        <v>-0.008774156774156775</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05440756240756241</v>
+        <v>0.001966009966009966</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.03216372816372817</v>
+        <v>0.01672552072552073</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00320999120999121</v>
+        <v>-0.003043059043059043</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.03322632922632923</v>
+        <v>-0.01646562446562447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01304536904536905</v>
+        <v>0.002400842400842401</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.001294981294981295</v>
+        <v>0.03162649962649963</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.03638844038844039</v>
+        <v>0.01032315432315432</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02630078630078631</v>
+        <v>-0.004308952308952309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
+          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.01544197544197545</v>
+        <v>0.02286305886305886</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
+          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03073416673416674</v>
+        <v>0.01422036222036222</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.0121967281967282</v>
+        <v>-0.02497762897762898</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
+          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.02475021675021675</v>
+        <v>0.01342269742269742</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.02309365109365109</v>
+        <v>-0.03245079245079245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02626567426567427</v>
+        <v>0.002465378465378466</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.05117234717234718</v>
+        <v>0.02494513294513295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.003334707334707335</v>
+        <v>-0.01844641844641845</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.02115224115224115</v>
+        <v>0.05709042909042911</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0296040656040656</v>
+        <v>0.01209178809178809</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006755250755250756</v>
+        <v>0.01742550542550543</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.03938753138753139</v>
+        <v>-0.07091557091557092</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.02496128496128496</v>
+        <v>0.08162727362727364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.004993648993648995</v>
+        <v>0.01912225912225912</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1300381420381421</v>
+        <v>-0.09805959805959807</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.07043312243312244</v>
+        <v>-0.01952368352368352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.04496908496908497</v>
+        <v>-0.01066977466977467</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01904188304188304</v>
+        <v>0.0009399729399729399</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.02236549036549037</v>
+        <v>-0.02321549921549922</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0397960597960598</v>
+        <v>-0.02185323385323385</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.007647391647391648</v>
+        <v>-0.07558406758406758</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.008214932214932217</v>
+        <v>0.00777840777840778</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.03824622224622225</v>
+        <v>0.04096194496194496</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.02602386202386202</v>
+        <v>-0.003334755334755335</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02182940182940183</v>
+        <v>-0.01081226281226281</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.02744276744276744</v>
+        <v>0.008991356991356994</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
+          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.01403691803691804</v>
+        <v>0.002104478104478104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
+          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0009665889665889666</v>
+        <v>-0.02582427782427783</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
+          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01585245985245985</v>
+        <v>0.01277126477126477</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
+          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.008206544206544208</v>
+        <v>-0.03634221634221634</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
+          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.02123106923106923</v>
+        <v>0.008539472539472541</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
+          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.03111465111465112</v>
+        <v>-0.02846807246807247</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.03207802407802408</v>
+        <v>-0.01598550398550399</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.008460788460788462</v>
+        <v>0.05336785736785737</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02233859833859834</v>
+        <v>0.05578732378732379</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.007728499728499729</v>
+        <v>0.02490364890364891</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.004334740334740335</v>
+        <v>0.01039075039075039</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1693372213372213</v>
+        <v>-0.03180883980883981</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.004478728478728479</v>
+        <v>0.07473827073827075</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.01846458646458646</v>
+        <v>-0.005486033486033486</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.02318890718890719</v>
+        <v>0.0151925551925552</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation tanks base cost (USD) [4.32e+05, 4.8e+05, 5.28e+05]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01188460788460789</v>
+        <v>-0.0432970512970513</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+          <t>Saccharification and co fermentation tanks exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.02106534906534907</v>
+        <v>-0.005446853446853448</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation transfer pumps base cost (USD) [8.5e+03, 9.44e+03, 1.04e+04]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.02766135966135966</v>
+        <v>0.02504818904818905</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+          <t>Saccharification and co fermentation transfer pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.005328233328233328</v>
+        <v>-0.0272042672042672</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation transfer pumps electricity rate (kW / m3/hr) [0.653, 0.725, 0.798]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.000680964680964681</v>
+        <v>-0.04549863349863351</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+          <t>Saccharification and co fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07720844920844921</v>
+        <v>0.04361938361938363</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.06754167154167155</v>
+        <v>-0.03384135384135385</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+          <t>Saccharification and co fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08906675306675307</v>
+        <v>0.00320954720954721</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+          <t>Saccharification and co fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03223583623583624</v>
+        <v>0.03243707643707644</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+          <t>Saccharification and co fermentation agitators electricity rate (kW / m3) [0.0214, 0.0238, 0.0262]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.05702854502854503</v>
+        <v>0.01994308394308394</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+          <t>Saccharification and co fermentation heat exchangers base cost (USD) [2.15e+04, 2.39e+04, 2.63e+04]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.006654030654030654</v>
+        <v>-0.03946563946563947</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Saccharification and co fermentation heat exchangers exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-7.718407718407719e-05</v>
+        <v>-0.03744495744495745</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Saccharification and co fermentation recirculation pumps base cost (USD) [4.25e+04, 4.72e+04, 5.19e+04]</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.02444178044178044</v>
+        <v>0.03200476400476401</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Saccharification and co fermentation recirculation pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.02750954750954751</v>
+        <v>0.09004611004611004</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+          <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.006529074529074529</v>
+        <v>-0.01178699978699979</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01727035727035727</v>
+        <v>-0.03254951654951655</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05216722016722017</v>
+        <v>0.009417129417129418</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+          <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.08687315087315088</v>
+        <v>-0.00410999210999211</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+          <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.04953895353895355</v>
+        <v>0.01668224868224868</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Pretreatment flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.04454331254331255</v>
+        <v>0.009210297210297209</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+          <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.0008943368943368943</v>
+        <v>0.02216999816999817</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.02543336543336544</v>
+        <v>-0.01097155097155097</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+          <t>Pretreatment flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.07008428208428209</v>
+        <v>0.04171926571926572</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+          <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.03269258069258069</v>
+        <v>0.03359051759051759</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>CSLTank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01652526452526453</v>
+        <v>0.05213942813942814</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+          <t>CSLTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.03182872382872383</v>
+        <v>-0.01304454104454104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>CSLTank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.005587577587577588</v>
+        <v>0.04862506862506863</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+          <t>CSLTank pump electricity rate (kW / kg/hr) [0.000241, 0.000268, 0.000294]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.01478252678252679</v>
+        <v>-0.002806310806310807</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+          <t>CSLTank agitator base cost (USD) [1.91e+04, 2.12e+04, 2.33e+04]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.03599215199215199</v>
+        <v>0.01638662838662839</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>CSLTank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.02978893778893779</v>
+        <v>0.04532831732831733</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+          <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.00145922545922546</v>
+        <v>-0.03168923568923569</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+          <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.02446647646647647</v>
+        <v>-0.001478629478629479</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>DAPTank bag exponent [0.5, 0.6, 0.7]</t>
+          <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.009559569559569561</v>
+        <v>-0.008515796515796516</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+          <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.03048288648288648</v>
+        <v>0.01528344328344329</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.04228294228294228</v>
+        <v>0.03361173361173361</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+          <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.003354063354063355</v>
+        <v>-0.04100768900768901</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+          <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.02644133044133045</v>
+        <v>-0.04391632391632392</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+          <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.05527365127365128</v>
+        <v>0.03212237612237612</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+          <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.03637416037416038</v>
+        <v>0.004017976017976018</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor receiver tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+          <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.01828650628650629</v>
+        <v>-0.05221378021378022</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter dry air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.02266567066567067</v>
+        <v>0.04171636171636172</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+          <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.02438256038256038</v>
+        <v>0.02015018015018015</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.03444503844503845</v>
+        <v>-0.005006609006609007</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+          <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.03919218319218319</v>
+        <v>0.01028699828699829</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor receiver tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.009561549561549563</v>
+        <v>0.05175397575397575</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter pressing air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.005484929484929485</v>
+        <v>0.04078568878568879</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+          <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.02505531705531706</v>
+        <v>0.03601346401346402</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01573890373890374</v>
+        <v>0.04656465456465457</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+          <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.003795531795531796</v>
+        <v>0.03708810108810109</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+          <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.003347115347115347</v>
+        <v>0.0177918897918898</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+          <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.02082308082308082</v>
+        <v>0.04528088128088129</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+          <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.01623805623805624</v>
+        <v>0.02690965490965491</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.02646597846597847</v>
+        <v>-0.005994965994965995</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.005206025206025207</v>
+        <v>-0.04588866988866989</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.07566655566655567</v>
+        <v>-0.03082975882975883</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.01241012441012441</v>
+        <v>0.1181528621528622</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+          <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.001244569244569244</v>
+        <v>0.01755226155226156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.03613677613677614</v>
+        <v>0.04958464958464959</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.0433960153960154</v>
+        <v>0.03155548355548356</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.06348444348444349</v>
+        <v>0.01997092397092397</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.04775437175437176</v>
+        <v>0.008797292797292798</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.006472278472278474</v>
+        <v>-0.009052449052449053</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.004262596262596263</v>
+        <v>0.06552953352953354</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.02935786135786136</v>
+        <v>0.03606535206535207</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.02115846915846916</v>
+        <v>0.002601506601506601</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.009595545595545596</v>
+        <v>0.001606921606921607</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.05634510834510835</v>
+        <v>0.02664589464589465</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.04130953730953731</v>
+        <v>0.01107154707154707</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.01006418206418207</v>
+        <v>0.04492808092808093</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.005238749238749239</v>
+        <v>0.01646003246003246</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.02001264801264802</v>
+        <v>-0.01462662262662263</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
+          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.0316957756957757</v>
+        <v>-0.01751207351207351</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.07018209418209419</v>
+        <v>0.04165733365733366</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump base cost (USD) [1.57e+04, 1.75e+04, 1.92e+04]</t>
+          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.01018725418725419</v>
+        <v>0.02734473934473934</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.01178240378240378</v>
+        <v>0.02661485061485062</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank pump electricity rate (kW / kg/hr) [0.00019, 0.000212, 0.000233]</t>
+          <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.02483620883620884</v>
+        <v>-0.02231189831189832</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+          <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.03824760224760226</v>
+        <v>0.0193956313956314</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.03256521256521257</v>
+        <v>0.04233777033777034</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
+          <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.06764890364890365</v>
+        <v>0.01125245925245925</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+          <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0127988287988288</v>
+        <v>-0.006755478755478755</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.02202277002277002</v>
+        <v>-0.04325823125823126</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+          <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.00438016038016038</v>
+        <v>0.05829101829101829</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.01262302862302862</v>
+        <v>0.02436802836802837</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+          <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.01787047787047787</v>
+        <v>0.03301028101028101</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.002611670611670612</v>
+        <v>0.03360682560682561</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.03521851121851122</v>
+        <v>0.04205401805401805</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+          <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.02027177627177627</v>
+        <v>0.01296021696021696</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
+          <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.01634933234933235</v>
+        <v>0.01962573162573163</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.003364431364431365</v>
+        <v>-0.03650076050076051</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air compressor electricity rate (kW / kg/hr) [0.00121, 0.00134, 0.00148]</t>
+          <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.04987078987078988</v>
+        <v>-0.03034151434151435</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Pressure filter dry air compressor receiver tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.008973044973044974</v>
+        <v>0.04985797385797387</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package instrument air dryer exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter dry air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.0536010296010296</v>
+        <v>-0.07997722397722398</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever base cost (USD) [1.44e+04, 1.6e+04, 1.76e+04]</t>
+          <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.02610816210816211</v>
+        <v>-0.003707631707631707</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
+          <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.01883117483117483</v>
+        <v>0.01801945801945802</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
+          <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.003054843054843055</v>
+        <v>-0.04614967014967016</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter pressing air compressor receiver tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.05240986040986042</v>
+        <v>-0.02493487293487294</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Blowdown discharge pump pump electricity rate (kW / kg/hr) [0.000287, 0.000319, 0.000351]</t>
+          <t>Pressure filter pressing air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.01521867921867922</v>
+        <v>0.006696978696978698</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+          <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.05978205578205579</v>
+        <v>0.03115576315576316</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.02004512004512005</v>
+        <v>0.03142344742344743</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.07287790887790889</v>
+        <v>-0.01883982683982684</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.05678255678255679</v>
+        <v>-0.001650805650805651</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+          <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.0210947730947731</v>
+        <v>-0.05441718641718642</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+          <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.03416380616380617</v>
+        <v>0.003765819765819767</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.06323083523083524</v>
+        <v>-0.00612873012873013</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+          <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.01183094383094383</v>
+        <v>0.01764481764481765</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0663990303990304</v>
+        <v>0.01947145947145947</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+          <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0005026205026205027</v>
+        <v>0.03154413154413155</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.000703884703884704</v>
+        <v>0.003525531525531526</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
+          <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.01185825585825586</v>
+        <v>0.001281421281421281</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.002188874188874189</v>
+        <v>0.0275001875001875</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.009573909573909575</v>
+        <v>0.003431643431643432</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.002633018633018633</v>
+        <v>-0.09362754962754963</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.04615874215874216</v>
+        <v>-0.01177371577371577</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.02041342441342442</v>
+        <v>-0.0103980223980224</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.03916703116703117</v>
+        <v>0.01362418962418963</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
+          <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.007707055707055708</v>
+        <v>0.02636210636210637</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
+          <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.009247965247965249</v>
+        <v>0.0009280449280449281</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+          <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.002496302496302496</v>
+        <v>0.0274962154962155</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.03147820347820348</v>
+        <v>0.003656559656559657</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+          <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.06310601110601111</v>
+        <v>0.05085308685308686</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.03301370101370102</v>
+        <v>-0.03313680913680914</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+          <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.006480402480402481</v>
+        <v>-0.05310618510618511</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+          <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.02090544890544891</v>
+        <v>-0.03858428658428658</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+          <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.003241107241107241</v>
+        <v>-0.009344601344601345</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+          <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.02789123189123189</v>
+        <v>0.04267837867837868</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.03213680013680014</v>
+        <v>-0.02547954147954148</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
+          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.004956880956880957</v>
+        <v>0.02381251181251181</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.04403548403548404</v>
+        <v>0.5039496359496359</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
+          <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.01881244281244281</v>
+        <v>0.02482419682419683</v>
       </c>
     </row>
     <row r="210">
@@ -2460,77 +2460,77 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.01334949734949735</v>
+        <v>-0.008942072942072943</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.2198876798876799</v>
+        <v>0.04781281181281181</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
+          <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.01207854007854008</v>
+        <v>0.02287989487989488</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Stream-boiler chemicals price (USD/kg) [4.5, 5, 5.5]</t>
+          <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.005544569544569545</v>
+        <v>0.2776584976584977</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+          <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.00490975690975691</v>
+        <v>0.02411599211599211</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
+          <t>Stream-lime price (USD/kg) [0.179, 0.199, 0.219]</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.4654979854979856</v>
+        <v>0.0659080979080979</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
+          <t>Stream-ethanol price (USD/kg) [0.613, 0.681, 0.749]</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.01206666006666007</v>
+        <v>-0.02571710571710572</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Stream-ethanol price (USD/kg) [0.698, 0.776, 0.853]</t>
+          <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.04040646440646441</v>
+        <v>0.001570621570621571</v>
       </c>
     </row>
     <row r="218">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.1172043092043092</v>
+        <v>-0.2505125265125265</v>
       </c>
     </row>
     <row r="219">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.01605100005100005</v>
+        <v>0.02543328143328143</v>
       </c>
     </row>
     <row r="220">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.1003543963543964</v>
+        <v>0.06156188556188557</v>
       </c>
     </row>
     <row r="221">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.03866675066675067</v>
+        <v>-0.04686911886911887</v>
       </c>
     </row>
     <row r="222">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.003171123171123171</v>
+        <v>0.04598384198384198</v>
       </c>
     </row>
     <row r="223">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.1942073182073182</v>
+        <v>0.2684272004272004</v>
       </c>
     </row>
     <row r="224">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.02483064083064083</v>
+        <v>0.01234033234033234</v>
       </c>
     </row>
     <row r="225">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.01515321915321916</v>
+        <v>0.007455991455991456</v>
       </c>
     </row>
     <row r="226">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.01988885588885589</v>
+        <v>0.02645097845097845</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/cornstover/Spearman correlation cornstover.xlsx
@@ -28,6 +28,147 @@
     <t>Saccharification and co fermentation-R301 ethanol conversion [0.93, 0.95, 0.97]</t>
   </si>
   <si>
+    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
+  </si>
+  <si>
+    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pretreatment flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+  </si>
+  <si>
+    <t>Fire water tank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
+  </si>
+  <si>
+    <t>Fire water tank bag exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
+  </si>
+  <si>
+    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
+  </si>
+  <si>
+    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
+  </si>
+  <si>
+    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
+  </si>
+  <si>
+    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+  </si>
+  <si>
     <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
   </si>
   <si>
@@ -37,6 +178,36 @@
     <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
   </si>
   <si>
+    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
+  </si>
+  <si>
+    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
+  </si>
+  <si>
+    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
+  </si>
+  <si>
+    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
     <t>Air distribution package plant air compressor base cost (USD) [2.52e+04, 2.8e+04, 3.08e+04]</t>
   </si>
   <si>
@@ -58,102 +229,36 @@
     <t>Air distribution package plant air reciever exponent [0.5, 0.6, 0.7]</t>
   </si>
   <si>
-    <t>Waste water system cost waste water system base cost (USD) [4.53e+07, 5.03e+07, 5.53e+07]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Waste water system cost waste water system electricity rate (kW / kg/hr) [0.0156, 0.0173, 0.019]</t>
-  </si>
-  <si>
-    <t>DAPTank tank base cost (USD) [9.18e+04, 1.02e+05, 1.12e+05]</t>
-  </si>
-  <si>
-    <t>DAPTank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>DAPTank pump base cost (USD) [2.7e+03, 3e+03, 3.3e+03]</t>
-  </si>
-  <si>
-    <t>DAPTank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>DAPTank pump electricity rate (kW / kg/hr) [0.00208, 0.00232, 0.00255]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator base cost (USD) [8.82e+03, 9.8e+03, 1.08e+04]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>DAPTank agitator electricity rate (kW / kg/hr) [0.0226, 0.0252, 0.0277]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump base cost (USD) [7.38e+03, 8.2e+03, 9.02e+03]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed hold tank pump electricity rate (kW / kg/hr) [0.000156, 0.000173, 0.00019]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank base cost (USD) [3.95e+05, 4.39e+05, 4.83e+05]</t>
-  </si>
-  <si>
-    <t>Seed hold tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator base cost (USD) [2.86e+04, 3.18e+04, 3.5e+04]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed hold tank agitator electricity rate (kW / kg/hr) [0.000252, 0.00028, 0.000308]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Feed stock handling system electricity rate (kW / kg/hr) [0.00744, 0.00827, 0.0091]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger base cost (USD) [3.06e+04, 3.4e+04, 3.74e+04]</t>
-  </si>
-  <si>
-    <t>Waste vapor condenser heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Fire water tank bag base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>Fire water tank bag exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank base cost (USD) [7.23e+05, 8.03e+05, 8.83e+05]</t>
-  </si>
-  <si>
-    <t>Fire water tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Fire water tank pump electricity rate (kW / kg/hr) [0.0102, 0.0113, 0.0124]</t>
-  </si>
-  <si>
     <t>Ammonia mixer mixer base cost (USD) [4.5e+03, 5e+03, 5.5e+03]</t>
   </si>
   <si>
     <t>Ammonia mixer mixer exponent [0.4, 0.5, 0.6]</t>
   </si>
   <si>
+    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+  </si>
+  <si>
+    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+  </si>
+  <si>
     <t>CSLTank tank base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
   </si>
   <si>
@@ -178,61 +283,211 @@
     <t>CSLTank agitator electricity rate (kW / kg/hr) [0.00482, 0.00535, 0.00589]</t>
   </si>
   <si>
-    <t>Seed train stage #5 agitators base cost (USD) [1.94e+04, 2.15e+04, 2.37e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 agitators electricity rate (kW / m3) [0.0119, 0.0132, 0.0145]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors base cost (USD) [5.31e+05, 5.9e+05, 6.49e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #5 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 agitators electricity rate (kW / m3) [0.0892, 0.0991, 0.109]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors base cost (USD) [1.58e+05, 1.76e+05, 1.94e+05]</t>
-  </si>
-  <si>
-    <t>Seed train stage #4 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors base cost (USD) [7.09e+04, 7.88e+04, 8.67e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #3 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors base cost (USD) [5.25e+04, 5.83e+04, 6.41e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #2 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors base cost (USD) [3.39e+04, 3.77e+04, 4.15e+04]</t>
-  </si>
-  <si>
-    <t>Seed train stage #1 reactors exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Seed train pumps base cost (USD) [2.23e+04, 2.48e+04, 2.73e+04]</t>
-  </si>
-  <si>
-    <t>Seed train pumps exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Seed train pumps electricity rate (kW / kg/hr) [0.000834, 0.000927, 0.00102]</t>
+    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
+  </si>
+  <si>
+    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor receiver tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter dry air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor receiver tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter pressing air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
+  </si>
+  <si>
+    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
+  </si>
+  <si>
+    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
+  </si>
+  <si>
+    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
+  </si>
+  <si>
+    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+  </si>
+  <si>
+    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+  </si>
+  <si>
+    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
   </si>
   <si>
     <t>Sulfuric acid mixer mixer base cost (USD) [5.4e+03, 6e+03, 6.6e+03]</t>
@@ -241,220 +496,61 @@
     <t>Sulfuric acid mixer mixer exponent [0.4, 0.5, 0.6]</t>
   </si>
   <si>
-    <t>Ammonia addition tank tank base cost (USD) [2.12e+05, 2.36e+05, 2.6e+05]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator base cost (USD) [1.97e+04, 2.19e+04, 2.41e+04]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Ammonia addition tank agitator electricity rate (kW / kg/hr) [1.64e-05, 1.82e-05, 2e-05]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) base cost (USD) [3.64e+05, 4.05e+05, 4.46e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air pressure filter (2) electricity rate (kW / kg/hr) [0.0295, 0.0328, 0.0361]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter base cost (USD) [6.77e+04, 7.52e+04, 8.27e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air pressure filter electricity rate (kW / kg/hr) [0.00317, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor receiver tank base cost (USD) [1.53e+04, 1.7e+04, 1.87e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter dry air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump base cost (USD) [2.62e+04, 2.92e+04, 3.21e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter cloth wash pump electricity rate (kW / kg/hr) [0.00316, 0.00352, 0.00387]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor receiver tank base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter pressing air compressor receiver tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter base cost (USD) [2.97e+06, 3.29e+06, 3.62e+06]</t>
-  </si>
-  <si>
-    <t>Pressure filter exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor base cost (USD) [6.3e+04, 7e+04, 7.7e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake conveyor electricity rate (kW / kg/hr) [0.000234, 0.00026, 0.000287]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw base cost (USD) [1.8e+04, 2e+04, 2.2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter lignin wet cake screw electricity rate (kW / kg/hr) [0.000352, 0.000391, 0.00043]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank base cost (USD) [1.37e+03, 1.52e+03, 1.67e+03]</t>
-  </si>
-  <si>
-    <t>Pressure filter recycled water tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump base cost (USD) [1.54e+04, 1.71e+04, 1.88e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter mafifold flush pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 base cost (USD) [1.57e+05, 1.75e+05, 1.92e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter stillage tank 531 exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump base cost (USD) [1.64e+04, 1.82e+04, 2e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter feed pump electricity rate (kW / kg/hr) [0.00211, 0.00234, 0.00258]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank base cost (USD) [9.27e+04, 1.03e+05, 1.13e+05]</t>
-  </si>
-  <si>
-    <t>Pressure filter filtrate tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump base cost (USD) [1.17e+04, 1.3e+04, 1.43e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter discharge pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator base cost (USD) [2.34e+04, 2.6e+04, 2.86e+04]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pressure filter flitrate tank agitator electricity rate (kW / kg/hr) [0.000158, 0.000176, 0.000193]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger base cost (USD) [7.65e+04, 8.5e+04, 9.35e+04]</t>
-  </si>
-  <si>
-    <t>Hydrolysate cooler heat exchanger exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
-  </si>
-  <si>
-    <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
-  </si>
-  <si>
-    <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank base cost (USD) [5.59e+03, 6.21e+03, 6.83e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump base cost (USD) [7.2e+03, 8e+03, 8.8e+03]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank pump electricity rate (kW / kg/hr) [0.000242, 0.000269, 0.000296]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer base cost (USD) [9.81e+04, 1.09e+05, 1.2e+05]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Enzyme hydrolysate mixer mixer electricity rate (kW / kg/hr) [0.000177, 0.000196, 0.000216]</t>
+    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
+  </si>
+  <si>
+    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
+  </si>
+  <si>
+    <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
+  </si>
+  <si>
+    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+  </si>
+  <si>
+    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+  </si>
+  <si>
+    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
+  </si>
+  <si>
+    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+  </si>
+  <si>
+    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+  </si>
+  <si>
+    <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+  </si>
+  <si>
+    <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
   </si>
   <si>
     <t>Oligomer conversion tank tank base cost (USD) [1.83e+05, 2.03e+05, 2.23e+05]</t>
@@ -481,72 +577,6 @@
     <t>Oligomer conversion tank agitator electricity rate (kW / kg/hr) [0.000579, 0.000644, 0.000708]</t>
   </si>
   <si>
-    <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
-  </si>
-  <si>
-    <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system base cost (USD) [1.78e+07, 1.98e+07, 2.18e+07]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment reactor system electricity rate (kW / kg/hr) [0.0494, 0.0549, 0.0604]</t>
-  </si>
-  <si>
-    <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
-  </si>
-  <si>
-    <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
-  </si>
-  <si>
-    <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
-  </si>
-  <si>
-    <t>Beer tank tank base cost (USD) [5.72e+05, 6.36e+05, 7e+05]</t>
-  </si>
-  <si>
-    <t>Beer tank tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Beer tank pump base cost (USD) [2.41e+04, 2.68e+04, 2.95e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Beer tank pump electricity rate (kW / kg/hr) [0.000197, 0.000219, 0.000241]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator base cost (USD) [6.15e+04, 6.83e+04, 7.51e+04]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Beer tank agitator electricity rate (kW / kg/hr) [3.15e-05, 3.5e-05, 3.85e-05]</t>
-  </si>
-  <si>
     <t>Blowdown discharge pump pump base cost (USD) [2.28e+04, 2.54e+04, 2.79e+04]</t>
   </si>
   <si>
@@ -601,51 +631,21 @@
     <t>Saccharification and co fermentation recirculation pumps electricity rate (kW / m3/hr) [0.35, 0.388, 0.427]</t>
   </si>
   <si>
-    <t>CIP Package base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
-  </si>
-  <si>
-    <t>CIP Package exponent [0.5, 0.6, 0.7]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank base cost (USD) [4.6e+05, 5.11e+05, 5.62e+05]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash tank exponent [0.6, 0.7, 0.8]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump base cost (USD) [2.7e+04, 3e+04, 3.3e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump exponent [0.7, 0.8, 0.9]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash pump electricity rate (kW / kg/hr) [0.000199, 0.000221, 0.000243]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator base cost (USD) [8.1e+04, 9e+04, 9.9e+04]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator exponent [0.4, 0.5, 0.6]</t>
-  </si>
-  <si>
-    <t>Pretreatment flash agitator electricity rate (kW / kg/hr) [0.000605, 0.000672, 0.000739]</t>
+    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
+  </si>
+  <si>
+    <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
+  </si>
+  <si>
+    <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
+  </si>
+  <si>
+    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
   </si>
   <si>
     <t>Stream-ammonia price (USD/kg) [0.404, 0.449, 0.493]</t>
   </si>
   <si>
-    <t>Stream-makeup water price (USD/kg) [0.000228, 0.000254, 0.000279]</t>
-  </si>
-  <si>
-    <t>Stream-cellulase price (USD/kg) [0.191, 0.212, 0.233]</t>
-  </si>
-  <si>
-    <t>Stream-WWT caustic price (USD/kg) [0.0673, 0.0748, 0.0822]</t>
-  </si>
-  <si>
-    <t>Stream-Baghouse bags price (USD/kg) [9.99, 11.1, 12.2]</t>
-  </si>
-  <si>
     <t>Stream-cornstover price (USD/kg) [0.0464, 0.0516, 0.0567]</t>
   </si>
   <si>
@@ -661,10 +661,10 @@
     <t>Stream-sulfuric acid price (USD/kg) [0.0807, 0.0897, 0.0987]</t>
   </si>
   <si>
+    <t>Stream-ethanol price (USD/kg) [0.643, 0.715, 0.786]</t>
+  </si>
+  <si>
     <t>Stream-ash price (USD/kg) [-0.0286, -0.0318, -0.035]</t>
-  </si>
-  <si>
-    <t>Stream-ethanol price (USD/kg) [0.653, 0.726, 0.799]</t>
   </si>
   <si>
     <t>Electricity price (USD/kWhr) [0.0515, 0.0572, 0.0629]</t>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.5683048304830483</v>
+        <v>-0.5833063306330631</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.1908790879087909</v>
+        <v>-0.129000900090009</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.09294929492949294</v>
+        <v>-0.03885988598859886</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.06175817581758176</v>
+        <v>0.1831863186318632</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01164116411641164</v>
+        <v>-0.1694449444944494</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.06681068106810681</v>
+        <v>-0.01780978097809781</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.1596639663966396</v>
+        <v>-0.05689768976897689</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.1383738373837383</v>
+        <v>0.116975697569757</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.03504350435043504</v>
+        <v>0.09406540654065405</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.03971197119711971</v>
+        <v>-0.04531653165316531</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.02515451545154515</v>
+        <v>-0.1221242124212421</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.01195319531953195</v>
+        <v>-0.1147314731473147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.01525352535253525</v>
+        <v>-0.0888088808880888</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.1233483348334833</v>
+        <v>0.1995799579957996</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.02833483348334833</v>
+        <v>-0.1403180318031803</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.08919291929192917</v>
+        <v>-0.2113291329132913</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.007272727272727272</v>
+        <v>-0.05675367536753675</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.04729672967296729</v>
+        <v>0.03987998799879987</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01788178817881788</v>
+        <v>-0.1263366336633663</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.02588658865886588</v>
+        <v>0.05074107410741074</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.2143774377437744</v>
+        <v>0.01141314131413141</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.1234323432343234</v>
+        <v>0.1531353135313531</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.1871347134713471</v>
+        <v>-0.1165316531653165</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.1211641164116412</v>
+        <v>0.1982238223822382</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1257,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.00726072607260726</v>
+        <v>0.04171617161716171</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.1158835883588359</v>
+        <v>0.004524452445244524</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.04622862286228623</v>
+        <v>0.141026102610261</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1281,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.04162016201620161</v>
+        <v>0.02099009900990099</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1289,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.01776177617761776</v>
+        <v>0.1608040804080408</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1297,7 +1297,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.05963396339633963</v>
+        <v>-0.04159615961596159</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1305,7 +1305,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.02695469546954695</v>
+        <v>-0.1996399639963996</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1313,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.1405220522052205</v>
+        <v>0.03582358235823582</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1321,7 +1321,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.0314071407140714</v>
+        <v>-0.009228922892289227</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1329,7 +1329,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.0446084608460846</v>
+        <v>-0.115055505550555</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1337,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.1718931893189319</v>
+        <v>0.1198559855985598</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1345,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.009720972097209719</v>
+        <v>-0.09046504650465045</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1353,7 +1353,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.06817881788178817</v>
+        <v>0.07134713471347134</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1361,7 +1361,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.0036003600360036</v>
+        <v>-0.1363456345634563</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1369,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.09128112811281126</v>
+        <v>-0.00438043804380438</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1377,7 +1377,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0422082208220822</v>
+        <v>-0.00048004800480048</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1385,7 +1385,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.01748574857485748</v>
+        <v>0.0008040804080408039</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1393,7 +1393,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.1644884488448844</v>
+        <v>0.1397659765976597</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1401,7 +1401,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.07888388838883888</v>
+        <v>-0.004428442844284428</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1409,7 +1409,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.01938193819381938</v>
+        <v>0.1092229222922292</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1417,7 +1417,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.2111491149114911</v>
+        <v>-0.0291029102910291</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1425,7 +1425,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.08003600360036003</v>
+        <v>0.1003180318031803</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1433,7 +1433,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.0432043204320432</v>
+        <v>0.08910891089108909</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1441,7 +1441,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.0381998199819982</v>
+        <v>0.1843744374437443</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1449,7 +1449,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.00696069606960696</v>
+        <v>0.06583858385838583</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1457,7 +1457,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.01176117611761176</v>
+        <v>0.06832283228322832</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1465,7 +1465,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.007584758475847584</v>
+        <v>0.01851785178517852</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1473,7 +1473,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.1476747674767477</v>
+        <v>0.03531953195319532</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1481,7 +1481,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.0342994299429943</v>
+        <v>-0.01983798379837984</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1489,7 +1489,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.03114311431143114</v>
+        <v>-0.1726492649264926</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1497,7 +1497,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.151995199519952</v>
+        <v>0.05622562256225622</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1505,7 +1505,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.09430543054305429</v>
+        <v>-0.07595559555955594</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1513,7 +1513,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.1086468646864686</v>
+        <v>0.002352235223522352</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1521,7 +1521,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.167992799279928</v>
+        <v>0.1963996399639964</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1529,7 +1529,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.01218121812181218</v>
+        <v>0.0944134413441344</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1537,7 +1537,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.00768076807680768</v>
+        <v>0.08208820882088208</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1545,7 +1545,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.0366036603660366</v>
+        <v>-0.01528952895289529</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1553,7 +1553,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.02144614461446144</v>
+        <v>-0.1191119111911191</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1561,7 +1561,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.09023702370237023</v>
+        <v>0.03614761476147614</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1569,7 +1569,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.05646564656465645</v>
+        <v>-0.09405340534053404</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1577,7 +1577,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.06355835583558356</v>
+        <v>0.1726132613261326</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1585,7 +1585,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.0525052505250525</v>
+        <v>-0.2086528652865286</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1593,7 +1593,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.04326432643264326</v>
+        <v>-0.05048904890489049</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1601,7 +1601,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.03368736873687368</v>
+        <v>0.002136213621362136</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1609,7 +1609,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.0392079207920792</v>
+        <v>-0.1363816381638163</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1617,7 +1617,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.1503990399039904</v>
+        <v>-0.02118211821182118</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1625,7 +1625,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.1463066306630663</v>
+        <v>0.3221482148214821</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1633,7 +1633,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.1807500750075007</v>
+        <v>0.05305730573057305</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1641,7 +1641,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.009036903690369035</v>
+        <v>-0.05767776777677767</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1649,7 +1649,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.05808580858085808</v>
+        <v>0.03656765676567657</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1657,7 +1657,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.169096909690969</v>
+        <v>0.03653165316531653</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1665,7 +1665,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.07965196519651963</v>
+        <v>-0.03463546354635463</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1673,7 +1673,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.1368136813681368</v>
+        <v>0.03642364236423642</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1681,7 +1681,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.1338613861386138</v>
+        <v>0.04297629762976297</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1689,7 +1689,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.1417221722172217</v>
+        <v>0.1258805880588059</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1697,7 +1697,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.1041824182418242</v>
+        <v>-0.03344734473447344</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1705,7 +1705,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.04451245124512451</v>
+        <v>0.001212121212121212</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1713,7 +1713,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.01482148214821482</v>
+        <v>-0.0407080708070807</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1721,7 +1721,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.06335433543354334</v>
+        <v>-0.1711131113111311</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1729,7 +1729,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.1108430843084308</v>
+        <v>-0.0006480648064806481</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.05449744974497449</v>
+        <v>0.02043804380438044</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.06923492349234923</v>
+        <v>0.08595259525952594</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.02571857185718571</v>
+        <v>-0.3041104110411041</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.03797179717971797</v>
+        <v>0.0387038703870387</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.03404740474047404</v>
+        <v>0.1281848184818482</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.2348394839483948</v>
+        <v>-0.02168616861686168</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.1667446744674467</v>
+        <v>-0.04556855685568556</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.02547854785478548</v>
+        <v>-0.2353675367536753</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.05926192619261925</v>
+        <v>0.04202820282028202</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.1073267326732673</v>
+        <v>-0.08556855685568555</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.007020702070207019</v>
+        <v>0.08061206120612061</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.0458085808580858</v>
+        <v>-0.06636663666366636</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.02784278427842784</v>
+        <v>0.08919291929192917</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.1171917191719172</v>
+        <v>0.07858385838583858</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.004200420042004199</v>
+        <v>0.09954995499549953</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.05838583858385838</v>
+        <v>-0.08589258925892589</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.02943894389438944</v>
+        <v>-0.09599759975997599</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.07573957395739574</v>
+        <v>-0.02695469546954695</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.3181158115811581</v>
+        <v>0.09040504050405039</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.03528352835283528</v>
+        <v>0.00312031203120312</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.04012001200120011</v>
+        <v>0.02867086708670867</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.1062106210621062</v>
+        <v>0.1398499849984998</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.1722892289228923</v>
+        <v>-0.04672067206720671</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.02617461746174617</v>
+        <v>0.04742874287428742</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.1226402640264026</v>
+        <v>0.07557155715571556</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.1476147614761476</v>
+        <v>0.05546954695469546</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.00564056405640564</v>
+        <v>0.02771077107710771</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.0390999099909991</v>
+        <v>-0.09225322532253223</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.01186918691869187</v>
+        <v>-0.1954755475547555</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.1323492349234923</v>
+        <v>0.06459045904590459</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.02232223222322232</v>
+        <v>0.02155415541554155</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.01466546654665466</v>
+        <v>-0.1581758175817581</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.07147914791479147</v>
+        <v>-0.2396639663966396</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.09208520852085207</v>
+        <v>0.09664566456645664</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.06390639063906389</v>
+        <v>-0.02083408340834083</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.06845484548454844</v>
+        <v>0.02567056705670567</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.1545634563456345</v>
+        <v>-0.0496129612961296</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.06837083708370838</v>
+        <v>0.05101710171017101</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.1775097509750975</v>
+        <v>-0.004404440444044404</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.06335433543354334</v>
+        <v>0.05239723972397239</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.01256525652565256</v>
+        <v>0.01881788178817882</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.1808460846084608</v>
+        <v>-0.0869246924692469</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.03647164716471647</v>
+        <v>-0.05465346534653465</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.05922592259225921</v>
+        <v>0.008784878487848783</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04332433243324332</v>
+        <v>0.1747854785478548</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2097,7 +2097,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.03035103510351034</v>
+        <v>-0.1081068106810681</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2105,7 +2105,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.03409540954095409</v>
+        <v>0.01785778577857786</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.04262826282628263</v>
+        <v>-0.08136813681368135</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.1349414941494149</v>
+        <v>-0.2138853885388539</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.07528352835283528</v>
+        <v>-0.02017401740174017</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.08682868286828681</v>
+        <v>-0.05053705370537052</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.03965196519651965</v>
+        <v>-0.01474947494749475</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.05136513651365136</v>
+        <v>-0.02645064506450645</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.001044104410441044</v>
+        <v>-0.1914431443144314</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.04255625562556255</v>
+        <v>0.1713891389138914</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.002028202820282028</v>
+        <v>0.1464026402640264</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.04661266126612661</v>
+        <v>0.01144914491449145</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-0.06117011701170116</v>
+        <v>0.06585058505850584</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.05615361536153615</v>
+        <v>0.01425742574257426</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.02767476747674767</v>
+        <v>-0.1013861386138614</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.1651965196519652</v>
+        <v>0.00312031203120312</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.007452745274527452</v>
+        <v>0.09297329732973296</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.04172817281728172</v>
+        <v>-0.04324032403240324</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.1092949294929493</v>
+        <v>0.1353135313531353</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.267038703870387</v>
+        <v>0.007776777677767775</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.1202760276027603</v>
+        <v>-0.2264386438643864</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-0.061002100210021</v>
+        <v>-0.005088508850885087</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.1052745274527453</v>
+        <v>-0.1888388838883888</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-0.1536513651365136</v>
+        <v>-0.09652565256525653</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.08224422442244222</v>
+        <v>0.02469846984698469</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.1005340534053405</v>
+        <v>0.01096909690969097</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.005376537653765376</v>
+        <v>-0.05845784578457845</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.1076147614761476</v>
+        <v>0.08685268526852684</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.2340834083408341</v>
+        <v>0.1867866786678668</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.1418421842184218</v>
+        <v>-0.04661266126612661</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.04296429642964296</v>
+        <v>-0.1103150315031503</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.02384638463846384</v>
+        <v>-0.07248724872487249</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-0.1597359735973597</v>
+        <v>-0.1711251125112511</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.1146474647464746</v>
+        <v>-0.08338433843384338</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2369,7 +2369,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.03219921992199219</v>
+        <v>0.1378577857785779</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2377,7 +2377,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-0.1186198619861986</v>
+        <v>-0.1134833483348335</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2385,7 +2385,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.1095589558955895</v>
+        <v>-0.02438643864386438</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2393,7 +2393,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.06277827782778277</v>
+        <v>-0.158991899189919</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.121056105610561</v>
+        <v>0.03753975397539754</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2409,7 +2409,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.1006420642064206</v>
+        <v>0.03203120312031203</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.1233363336333633</v>
+        <v>0.008736873687368736</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.159027902790279</v>
+        <v>0.07812781278127812</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2433,7 +2433,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-0.1333213321332133</v>
+        <v>-0.009084908490849083</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2441,7 +2441,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.06444644464446445</v>
+        <v>-0.106990699069907</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2449,7 +2449,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-0.1639003900390039</v>
+        <v>-0.01436543654365436</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2457,7 +2457,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>-0.1075067506750675</v>
+        <v>-0.181014101410141</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-0.1226642664266426</v>
+        <v>-0.01299729972997299</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.02436243624362436</v>
+        <v>-0.02243024302430243</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2481,7 +2481,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.2114251425142514</v>
+        <v>0.03522352235223522</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2489,7 +2489,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.004092409240924091</v>
+        <v>-0.0857125712571257</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2497,7 +2497,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.06277827782778277</v>
+        <v>0.01195319531953195</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2505,7 +2505,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.04152415241524152</v>
+        <v>0.1046264626462646</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2513,7 +2513,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.09803780378037803</v>
+        <v>-0.01964596459645964</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2521,7 +2521,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.0431083108310831</v>
+        <v>-0.08680468046804679</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-0.05638163816381637</v>
+        <v>0.09765376537653764</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2537,7 +2537,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.035007500750075</v>
+        <v>-0.06046204620462046</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2545,7 +2545,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.07722772277227721</v>
+        <v>-0.05045304530453045</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.05645364536453645</v>
+        <v>0.1502550255025502</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2561,7 +2561,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.09756975697569756</v>
+        <v>-0.06419441944194419</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2569,7 +2569,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.08736873687368735</v>
+        <v>-0.06905490549054905</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2577,7 +2577,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.06456645664566456</v>
+        <v>-0.01729372937293729</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2585,7 +2585,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.1374137413741374</v>
+        <v>-0.1711371137113711</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.02649864986498649</v>
+        <v>0.05557755775577557</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.1246684668466846</v>
+        <v>0.1002820282028203</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2609,7 +2609,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.01596159615961596</v>
+        <v>-0.002376237623762376</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2617,7 +2617,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-0.05594959495949594</v>
+        <v>0.08015601560156013</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2625,7 +2625,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.05365736573657365</v>
+        <v>-0.05764176417641764</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2633,7 +2633,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.002724272427242724</v>
+        <v>-0.04967296729672967</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2641,7 +2641,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.1071947194719472</v>
+        <v>0.04396039603960395</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2649,7 +2649,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.1338493849384938</v>
+        <v>0.001308130813081308</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2657,7 +2657,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.00636063606360636</v>
+        <v>0.05368136813681367</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2665,7 +2665,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.0770957095709571</v>
+        <v>-0.0107050705070507</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2673,7 +2673,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.1404140414041404</v>
+        <v>0.05926192619261925</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2681,7 +2681,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>-0.001896189618961896</v>
+        <v>-0.1035343534353435</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.02678667866786678</v>
+        <v>0.181014101410141</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2697,7 +2697,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.0596099609960996</v>
+        <v>0.08738073807380738</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2705,7 +2705,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.09648964896489648</v>
+        <v>0.3505070507050704</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2713,7 +2713,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.1691809180918092</v>
+        <v>-0.07036303630363036</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-0.08277227722772276</v>
+        <v>-0.06131413141314131</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2729,7 +2729,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-0.004956495649564956</v>
+        <v>-0.009588958895889586</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2737,7 +2737,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.3604560456045603</v>
+        <v>0.5536153615361535</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2745,7 +2745,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.03727572757275727</v>
+        <v>0.3274167416741674</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2753,7 +2753,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.07429942994299429</v>
+        <v>0.2023642364236423</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2761,7 +2761,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.01392139213921392</v>
+        <v>-0.1187518751875187</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2769,7 +2769,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.06820282028202819</v>
+        <v>0.04876087608760876</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2777,7 +2777,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-0.00276027602760276</v>
+        <v>0.06545454545454545</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2785,7 +2785,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.02708670867086708</v>
+        <v>0.1323732373237324</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2793,7 +2793,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>-0.2607500750075007</v>
+        <v>-0.0378037803780378</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.04368436843684367</v>
+        <v>-0.02754275427542754</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.0859165916591659</v>
+        <v>-0.07062706270627062</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2817,7 +2817,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.1413861386138614</v>
+        <v>0.05154515451545154</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2825,7 +2825,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.03843984398439844</v>
+        <v>-0.0267026702670267</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.2146294629462946</v>
+        <v>0.2432883288328833</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.1004980498049805</v>
+        <v>-0.02129012901290129</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.001968196819681968</v>
+        <v>-0.07714371437143713</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.1459105910591059</v>
+        <v>-0.04813681368136813</v>
       </c>
     </row>
   </sheetData>
